--- a/2_semester/labs/lab_2_5_1/2_5_1.xlsx
+++ b/2_semester/labs/lab_2_5_1/2_5_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mipt_dgap\2_semester\labs\lab_2_5_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\mipt_dgap\2_semester\labs\lab_2_5_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{829A0481-E090-42F5-8F5F-F0D8610C81F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1039DFD3-BB8A-4E9A-80E0-2C99ED1A6727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{438C22A8-7B93-426B-B172-54550A05B405}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{438C22A8-7B93-426B-B172-54550A05B405}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="30">
   <si>
     <t>ед</t>
   </si>
@@ -82,6 +82,48 @@
   </si>
   <si>
     <t>del max</t>
+  </si>
+  <si>
+    <t>del avg</t>
+  </si>
+  <si>
+    <t>p avg</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>rho</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>sqr d</t>
+  </si>
+  <si>
+    <t>sum</t>
+  </si>
+  <si>
+    <t>sigma rnd</t>
+  </si>
+  <si>
+    <t>sigma c</t>
+  </si>
+  <si>
+    <t>Terr</t>
+  </si>
+  <si>
+    <t>sigmaerr</t>
+  </si>
+  <si>
+    <t>qerr</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -543,19 +585,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA98A08D-1FA0-4A65-B8DB-055746EF8A50}">
-  <dimension ref="B1:O68"/>
+  <dimension ref="B1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I68" sqref="I68"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="12" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="10.28515625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -571,35 +617,53 @@
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="U2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <f>43.5-39.5</f>
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -610,29 +674,47 @@
       <c r="G3" s="2">
         <v>1</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="2"/>
+      <c r="I3" s="2">
         <v>115</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>129</v>
       </c>
-      <c r="J3" s="2">
-        <f>I3-H3</f>
+      <c r="K3" s="2">
+        <f>J3-I3</f>
         <v>14</v>
       </c>
-      <c r="K3" s="7"/>
-      <c r="M3" s="1">
+      <c r="L3" s="7"/>
+      <c r="N3" s="1">
         <v>25.5</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <v>8</v>
       </c>
-      <c r="O3" s="1">
-        <f>M3-N3</f>
+      <c r="P3" s="1">
+        <f>N3-O3</f>
         <v>17.5</v>
       </c>
-    </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="U3" s="6">
+        <v>22</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>115</v>
+      </c>
+      <c r="X3" s="2">
+        <v>129</v>
+      </c>
+      <c r="Y3" s="2">
+        <f>X3-W3</f>
+        <v>14</v>
+      </c>
+      <c r="Z3" s="7"/>
+    </row>
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -643,19 +725,35 @@
       <c r="G4" s="2">
         <v>2</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="2"/>
+      <c r="I4" s="2">
         <v>115</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>128</v>
       </c>
-      <c r="J4" s="2">
-        <f>I4-H4</f>
+      <c r="K4" s="2">
+        <f>J4-I4</f>
         <v>13</v>
       </c>
-      <c r="K4" s="7"/>
-    </row>
-    <row r="5" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L4" s="7"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="2">
+        <v>2</v>
+      </c>
+      <c r="W4" s="2">
+        <v>115</v>
+      </c>
+      <c r="X4" s="2">
+        <v>128</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>X4-W4</f>
+        <v>13</v>
+      </c>
+      <c r="Z4" s="7"/>
+    </row>
+    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -666,26 +764,49 @@
       <c r="G5" s="9">
         <v>3</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="9"/>
+      <c r="I5" s="9">
         <v>114</v>
       </c>
-      <c r="I5" s="9">
+      <c r="J5" s="9">
         <v>128</v>
       </c>
-      <c r="J5" s="9">
-        <f>I5-H5</f>
+      <c r="K5" s="9">
+        <f>J5-I5</f>
         <v>14</v>
       </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="L5" s="10"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="9">
+        <v>3</v>
+      </c>
+      <c r="W5" s="9">
+        <v>114</v>
+      </c>
+      <c r="X5" s="9">
+        <v>128</v>
+      </c>
+      <c r="Y5" s="9">
+        <f>X5-W5</f>
+        <v>14</v>
+      </c>
+      <c r="Z5" s="10"/>
+    </row>
+    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
         <f>C3*C4*C5</f>
-        <v>7.8453200000000001</v>
+        <v>0.98066500000000001</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>6</v>
@@ -694,23 +815,56 @@
         <v>10</v>
       </c>
       <c r="H7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K7" s="4"/>
+      <c r="L7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="X7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="Y7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="1">
-        <f>AVERAGE(K8:K12)</f>
-        <v>28.047018999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Z7" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -721,41 +875,128 @@
         <v>1</v>
       </c>
       <c r="H8" s="2">
-        <v>210</v>
+        <f>SUM(I8:I12)</f>
+        <v>0.30000000000000004</v>
       </c>
       <c r="I8" s="2">
-        <v>224</v>
+        <f>(J8-K8)^2</f>
+        <v>9.0000000000006825E-2</v>
       </c>
       <c r="J8" s="2">
-        <f>I8-H8</f>
-        <v>14</v>
-      </c>
-      <c r="K8" s="7">
-        <f>J8*$C$5*$F$11</f>
-        <v>27.458619999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="K8" s="2">
+        <f>L8</f>
+        <v>224.3</v>
+      </c>
+      <c r="L8" s="7">
+        <f>AVERAGE(J8:J12)</f>
+        <v>224.3</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O8" s="1">
+        <f>22+273</f>
+        <v>295</v>
+      </c>
+      <c r="P8" s="1">
+        <f>L12</f>
+        <v>8.0492983200000007E-2</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R8" s="1">
+        <f>SQRT(H12^2+0.0006^2)</f>
+        <v>6.2126162261970993E-4</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U8" s="6">
+        <v>22</v>
+      </c>
+      <c r="V8" s="2">
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <f>($L$8-X8)^2</f>
+        <v>9.0000000000006825E-2</v>
+      </c>
+      <c r="X8" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y8" s="2">
+        <f>X8-W8</f>
+        <v>223.91</v>
+      </c>
+      <c r="Z8" s="7">
+        <f>AVERAGE(X8:X12)</f>
+        <v>224.3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F9" s="6"/>
       <c r="G9" s="2">
         <v>2</v>
       </c>
-      <c r="H9" s="2">
-        <v>210</v>
+      <c r="H9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" ref="I9:I12" si="0">(J9-K9)^2</f>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="J9" s="2">
         <v>224.5</v>
       </c>
-      <c r="J9" s="2">
-        <f>I9-H9</f>
-        <v>14.5</v>
-      </c>
-      <c r="K9" s="7">
-        <f>J9*$C$5*$F$11</f>
-        <v>28.439285000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K9" s="2">
+        <f>L8</f>
+        <v>224.3</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="1">
+        <f>28+273</f>
+        <v>301</v>
+      </c>
+      <c r="P9" s="1">
+        <f>L19</f>
+        <v>8.031646349999999E-2</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R9" s="1">
+        <f>SQRT(H19^2+0.0006^2)</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U9" s="6"/>
+      <c r="V9" s="2">
+        <v>2</v>
+      </c>
+      <c r="W9" s="2">
+        <f t="shared" ref="W9:W12" si="1">($L$8-X9)^2</f>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="X9" s="2">
+        <v>224.5</v>
+      </c>
+      <c r="Y9" s="2">
+        <f>X9-W9</f>
+        <v>224.46</v>
+      </c>
+      <c r="Z9" s="7">
+        <f>AVERAGE(X8:X12)</f>
+        <v>224.3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F10" s="6" t="s">
         <v>1</v>
       </c>
@@ -763,64 +1004,211 @@
         <v>3</v>
       </c>
       <c r="H10" s="2">
-        <v>210</v>
+        <f>SQRT(H8/4)</f>
+        <v>0.27386127875258309</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="J10" s="2">
         <v>224.5</v>
       </c>
-      <c r="J10" s="2">
-        <f>I10-H10</f>
-        <v>14.5</v>
-      </c>
-      <c r="K10" s="7">
-        <f>J10*$C$5*$F$11</f>
-        <v>28.439285000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="K10" s="2">
+        <f>L8</f>
+        <v>224.3</v>
+      </c>
+      <c r="L10" s="7">
+        <f>L8*$C$4*$C$5-M8*$C$5*$P$3/1000</f>
+        <v>268.30994400000003</v>
+      </c>
+      <c r="O10" s="1">
+        <f>32+273</f>
+        <v>305</v>
+      </c>
+      <c r="P10" s="1">
+        <f>L26</f>
+        <v>8.031646349999999E-2</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R10" s="1">
+        <f>SQRT(H26^2+0.0006^2)</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V10" s="2">
+        <v>3</v>
+      </c>
+      <c r="W10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="X10" s="2">
+        <v>224.5</v>
+      </c>
+      <c r="Y10" s="2">
+        <f>X10-W10</f>
+        <v>224.46</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" ref="Z10:Z12" si="2">AVERAGE(X10:X14)</f>
+        <v>224.33333333333334</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F11" s="6">
         <v>0.2</v>
       </c>
       <c r="G11" s="2">
         <v>4</v>
       </c>
-      <c r="H11" s="2">
-        <v>210</v>
+      <c r="H11" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="0"/>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="J11" s="2">
         <v>224.5</v>
       </c>
-      <c r="J11" s="2">
-        <f>I11-H11</f>
-        <v>14.5</v>
-      </c>
-      <c r="K11" s="7">
-        <f>J11*$C$5*$F$11</f>
-        <v>28.439285000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K11" s="2">
+        <f>L8</f>
+        <v>224.3</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O11" s="1">
+        <f>35+273</f>
+        <v>308</v>
+      </c>
+      <c r="P11" s="1">
+        <f>L33</f>
+        <v>7.9786904399999997E-2</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R11" s="1">
+        <f>SQRT(H33^2+0.0006^2)</f>
+        <v>6.8107563086657269E-4</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U11" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="V11" s="2">
+        <v>4</v>
+      </c>
+      <c r="W11" s="2">
+        <f t="shared" si="1"/>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="X11" s="2">
+        <v>224.5</v>
+      </c>
+      <c r="Y11" s="2">
+        <f>X11-W11</f>
+        <v>224.46</v>
+      </c>
+      <c r="Z11" s="7">
+        <f t="shared" si="2"/>
+        <v>224.16666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="8"/>
       <c r="G12" s="9">
         <v>5</v>
       </c>
       <c r="H12" s="9">
-        <v>210</v>
+        <f>H10*$C$4*$C$5*0.0006/2</f>
+        <v>1.6113970255674114E-4</v>
       </c>
       <c r="I12" s="9">
-        <v>224</v>
+        <f t="shared" si="0"/>
+        <v>9.0000000000006825E-2</v>
       </c>
       <c r="J12" s="9">
-        <f>I12-H12</f>
-        <v>14</v>
-      </c>
-      <c r="K12" s="10">
-        <f>J12*$C$5*$F$11</f>
-        <v>27.458619999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="K12" s="9">
+        <f>L8</f>
+        <v>224.3</v>
+      </c>
+      <c r="L12" s="10">
+        <f>L10*0.0006/2</f>
+        <v>8.0492983200000007E-2</v>
+      </c>
+      <c r="O12" s="1">
+        <f>40+273</f>
+        <v>313</v>
+      </c>
+      <c r="P12" s="1">
+        <f>L40</f>
+        <v>7.9021985700000005E-2</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R12" s="1">
+        <f>SQRT(H40^2+0.0006^2)</f>
+        <v>6.551661443024967E-4</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="9">
+        <v>5</v>
+      </c>
+      <c r="W12" s="2">
+        <f t="shared" si="1"/>
+        <v>9.0000000000006825E-2</v>
+      </c>
+      <c r="X12" s="9">
+        <v>224</v>
+      </c>
+      <c r="Y12" s="9">
+        <f>X12-W12</f>
+        <v>223.91</v>
+      </c>
+      <c r="Z12" s="7">
+        <f t="shared" si="2"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O13" s="1">
+        <f>45+273</f>
+        <v>318</v>
+      </c>
+      <c r="P13" s="1">
+        <f>L47</f>
+        <v>7.8080547299999983E-2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R13" s="1">
+        <f>SQRT(H47^2+0.0006^2)</f>
+        <v>6.551661443024967E-4</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F14" s="3" t="s">
         <v>6</v>
       </c>
@@ -828,21 +1216,59 @@
         <v>10</v>
       </c>
       <c r="H14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I14" s="4" t="s">
+      <c r="J14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4"/>
+      <c r="L14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O14" s="1">
+        <f>50+273</f>
+        <v>323</v>
+      </c>
+      <c r="P14" s="1">
+        <f>L54</f>
+        <v>7.649186999999999E-2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R14" s="1">
+        <f>SQRT(H54^2+0.0006^2)</f>
+        <v>6.6824647084758331E-4</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="1">
-        <f>AVERAGE(K15:K19)</f>
-        <v>26.477954999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="Z14" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F15" s="6">
         <v>28</v>
       </c>
@@ -850,41 +1276,127 @@
         <v>1</v>
       </c>
       <c r="H15" s="2">
-        <v>210</v>
+        <f>SUM(I15:I19)</f>
+        <v>0</v>
       </c>
       <c r="I15" s="2">
-        <v>224</v>
+        <f t="shared" ref="I15:I19" si="3">(J15-K15)^2</f>
+        <v>0</v>
       </c>
       <c r="J15" s="2">
-        <f>I15-H15</f>
-        <v>14</v>
-      </c>
-      <c r="K15" s="7">
-        <f>J15*$C$5*$F$11</f>
-        <v>27.458619999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="K15" s="2">
+        <f>L15</f>
+        <v>224</v>
+      </c>
+      <c r="L15" s="7">
+        <f>AVERAGE(J15:J19)</f>
+        <v>224</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O15" s="1">
+        <f>55+273</f>
+        <v>328</v>
+      </c>
+      <c r="P15" s="1">
+        <f>L61</f>
+        <v>7.5609271500000005E-2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R15" s="1">
+        <f>SQRT(H61^2+0.0006^2)</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U15" s="6">
+        <v>28</v>
+      </c>
+      <c r="V15" s="2">
+        <v>1</v>
+      </c>
+      <c r="W15" s="2">
+        <f>($L$8-X15)^2</f>
+        <v>9.0000000000006825E-2</v>
+      </c>
+      <c r="X15" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y15" s="2">
+        <f>X15-W15</f>
+        <v>223.91</v>
+      </c>
+      <c r="Z15" s="7">
+        <f>AVERAGE(X15:X19)</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F16" s="6"/>
       <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="2">
-        <v>210.5</v>
+      <c r="H16" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I16" s="2">
-        <v>224</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J16" s="2">
-        <f>I16-H16</f>
-        <v>13.5</v>
-      </c>
-      <c r="K16" s="7">
-        <f>J16*$C$5*$F$11</f>
-        <v>26.477954999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="6:12" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="K16" s="2">
+        <f>L15</f>
+        <v>224</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="1">
+        <f>59+273</f>
+        <v>332</v>
+      </c>
+      <c r="P16" s="1">
+        <f>L68</f>
+        <v>7.478551289999999E-2</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R16" s="1">
+        <f>SQRT(H68^2+0.0006^2)</f>
+        <v>6.8107563086657269E-4</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U16" s="6"/>
+      <c r="V16" s="2">
+        <v>2</v>
+      </c>
+      <c r="W16" s="2">
+        <f t="shared" ref="W16:W19" si="4">($L$8-X16)^2</f>
+        <v>9.0000000000006825E-2</v>
+      </c>
+      <c r="X16" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y16" s="2">
+        <f>X16-W16</f>
+        <v>223.91</v>
+      </c>
+      <c r="Z16" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F17" s="6" t="s">
         <v>1</v>
       </c>
@@ -892,64 +1404,185 @@
         <v>3</v>
       </c>
       <c r="H17" s="2">
-        <v>210.5</v>
+        <f>SQRT(H15/4)</f>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
-        <v>224</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J17" s="2">
-        <f>I17-H17</f>
-        <v>13.5</v>
-      </c>
-      <c r="K17" s="7">
-        <f>J17*$C$5*$F$11</f>
-        <v>26.477954999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="6:12" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="K17" s="2">
+        <f>L15</f>
+        <v>224</v>
+      </c>
+      <c r="L17" s="7">
+        <f>L15*$C$4*$C$5-M15*$C$5*$P$3/1000</f>
+        <v>267.72154499999999</v>
+      </c>
+      <c r="U17" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V17" s="2">
+        <v>3</v>
+      </c>
+      <c r="W17" s="2">
+        <f t="shared" si="4"/>
+        <v>9.0000000000006825E-2</v>
+      </c>
+      <c r="X17" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y17" s="2">
+        <f>X17-W17</f>
+        <v>223.91</v>
+      </c>
+      <c r="Z17" s="7">
+        <f>Z15*$C$4*$C$5-AA15*$C$5*$P$3/1000</f>
+        <v>439.33792</v>
+      </c>
+    </row>
+    <row r="18" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F18" s="6">
         <v>0.2</v>
       </c>
       <c r="G18" s="2">
         <v>4</v>
       </c>
-      <c r="H18" s="2">
-        <v>211</v>
+      <c r="H18" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="I18" s="2">
-        <v>224</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J18" s="2">
-        <f>I18-H18</f>
-        <v>13</v>
-      </c>
-      <c r="K18" s="7">
-        <f>J18*$C$5*$F$11</f>
-        <v>25.49729</v>
-      </c>
-    </row>
-    <row r="19" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>224</v>
+      </c>
+      <c r="K18" s="2">
+        <f>L15</f>
+        <v>224</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U18" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="V18" s="2">
+        <v>4</v>
+      </c>
+      <c r="W18" s="2">
+        <f t="shared" si="4"/>
+        <v>9.0000000000006825E-2</v>
+      </c>
+      <c r="X18" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y18" s="2">
+        <f>X18-W18</f>
+        <v>223.91</v>
+      </c>
+      <c r="Z18" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="8"/>
       <c r="G19" s="9">
         <v>5</v>
       </c>
       <c r="H19" s="9">
-        <v>210.5</v>
+        <f>H17*$C$4*$C$5*0.0006/2</f>
+        <v>0</v>
       </c>
       <c r="I19" s="9">
-        <v>224</v>
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
       <c r="J19" s="9">
-        <f>I19-H19</f>
-        <v>13.5</v>
-      </c>
-      <c r="K19" s="10">
-        <f>J19*$C$5*$F$11</f>
-        <v>26.477954999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="6:12" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="K19" s="9">
+        <f>L15</f>
+        <v>224</v>
+      </c>
+      <c r="L19" s="10">
+        <f>L17*0.0006/2</f>
+        <v>8.031646349999999E-2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>295</v>
+      </c>
+      <c r="P19" s="1">
+        <f>O19*0.00017</f>
+        <v>5.015E-2</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R19" s="1">
+        <v>0</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U19" s="8"/>
+      <c r="V19" s="9">
+        <v>5</v>
+      </c>
+      <c r="W19" s="2">
+        <f t="shared" si="4"/>
+        <v>9.0000000000006825E-2</v>
+      </c>
+      <c r="X19" s="9">
+        <v>224</v>
+      </c>
+      <c r="Y19" s="9">
+        <f>X19-W19</f>
+        <v>223.91</v>
+      </c>
+      <c r="Z19" s="10">
+        <f>Z17*0.0006/2</f>
+        <v>0.131801376</v>
+      </c>
+    </row>
+    <row r="20" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="1">
+        <v>301</v>
+      </c>
+      <c r="P20" s="1">
+        <f t="shared" ref="P20:P27" si="5">O20*0.00017</f>
+        <v>5.1170000000000007E-2</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R20" s="1">
+        <v>0</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F21" s="3" t="s">
         <v>6</v>
       </c>
@@ -957,23 +1590,57 @@
         <v>10</v>
       </c>
       <c r="H21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="4" t="s">
+      <c r="J21" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="4" t="s">
+      <c r="K21" s="4"/>
+      <c r="L21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O21" s="1">
+        <v>305</v>
+      </c>
+      <c r="P21" s="1">
+        <f t="shared" si="5"/>
+        <v>5.1850000000000007E-2</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R21" s="1">
+        <v>0</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W21" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L21" s="1">
-        <f>AVERAGE(K22:K26)</f>
-        <v>26.085689000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z21" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F22" s="6">
         <v>32</v>
       </c>
@@ -981,41 +1648,121 @@
         <v>1</v>
       </c>
       <c r="H22" s="2">
+        <f>SUM(I22:I26)</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <f t="shared" ref="I22:I26" si="6">(J22-K22)^2</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>224</v>
+      </c>
+      <c r="K22" s="2">
+        <f>L22</f>
+        <v>224</v>
+      </c>
+      <c r="L22" s="7">
+        <f>AVERAGE(J22:J26)</f>
+        <v>224</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O22" s="1">
+        <v>308</v>
+      </c>
+      <c r="P22" s="1">
+        <f t="shared" si="5"/>
+        <v>5.2360000000000004E-2</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U22" s="6">
+        <v>32</v>
+      </c>
+      <c r="V22" s="2">
+        <v>1</v>
+      </c>
+      <c r="W22" s="2">
         <v>211</v>
       </c>
-      <c r="I22" s="2">
-        <v>224</v>
-      </c>
-      <c r="J22" s="2">
-        <f>I22-H22</f>
+      <c r="X22" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y22" s="2">
+        <f>X22-W22</f>
         <v>13</v>
       </c>
-      <c r="K22" s="7">
-        <f>J22*$C$5*$F$11</f>
-        <v>25.49729</v>
-      </c>
-    </row>
-    <row r="23" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z22" s="7">
+        <f>AVERAGE(X22:X26)</f>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F23" s="6"/>
       <c r="G23" s="2">
         <v>2</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
+        <v>224</v>
+      </c>
+      <c r="K23" s="2">
+        <f>L22</f>
+        <v>224</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="1">
+        <v>313</v>
+      </c>
+      <c r="P23" s="1">
+        <f t="shared" si="5"/>
+        <v>5.3210000000000007E-2</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R23" s="1">
+        <v>0</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U23" s="6"/>
+      <c r="V23" s="2">
+        <v>2</v>
+      </c>
+      <c r="W23" s="2">
         <v>211</v>
       </c>
-      <c r="I23" s="2">
-        <v>224</v>
-      </c>
-      <c r="J23" s="2">
-        <f>I23-H23</f>
+      <c r="X23" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y23" s="2">
+        <f>X23-W23</f>
         <v>13</v>
       </c>
-      <c r="K23" s="7">
-        <f>J23*$C$5*$F$11</f>
-        <v>25.49729</v>
-      </c>
-    </row>
-    <row r="24" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z23" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F24" s="6" t="s">
         <v>1</v>
       </c>
@@ -1023,64 +1770,199 @@
         <v>3</v>
       </c>
       <c r="H24" s="2">
+        <f>SQRT(H22/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
+        <v>224</v>
+      </c>
+      <c r="K24" s="2">
+        <f>L22</f>
+        <v>224</v>
+      </c>
+      <c r="L24" s="7">
+        <f>L22*$C$4*$C$5-M22*$C$5*$P$3/1000</f>
+        <v>267.72154499999999</v>
+      </c>
+      <c r="O24" s="1">
+        <v>318</v>
+      </c>
+      <c r="P24" s="1">
+        <f t="shared" si="5"/>
+        <v>5.4060000000000004E-2</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R24" s="1">
+        <v>0</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V24" s="2">
+        <v>3</v>
+      </c>
+      <c r="W24" s="2">
         <v>210</v>
       </c>
-      <c r="I24" s="2">
-        <v>224</v>
-      </c>
-      <c r="J24" s="2">
-        <f>I24-H24</f>
+      <c r="X24" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y24" s="2">
+        <f>X24-W24</f>
         <v>14</v>
       </c>
-      <c r="K24" s="7">
-        <f>J24*$C$5*$F$11</f>
-        <v>27.458619999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z24" s="7">
+        <f>Z22*$C$4*$C$5-AA22*$C$5*$P$3/1000</f>
+        <v>439.33792</v>
+      </c>
+    </row>
+    <row r="25" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F25" s="6">
         <v>0.2</v>
       </c>
       <c r="G25" s="2">
         <v>4</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I25" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
+        <v>224</v>
+      </c>
+      <c r="K25" s="2">
+        <f>L22</f>
+        <v>224</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O25" s="1">
+        <v>323</v>
+      </c>
+      <c r="P25" s="1">
+        <f t="shared" si="5"/>
+        <v>5.491E-2</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R25" s="1">
+        <v>0</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U25" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="V25" s="2">
+        <v>4</v>
+      </c>
+      <c r="W25" s="2">
         <v>211</v>
       </c>
-      <c r="I25" s="2">
-        <v>224</v>
-      </c>
-      <c r="J25" s="2">
-        <f>I25-H25</f>
+      <c r="X25" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y25" s="2">
+        <f>X25-W25</f>
         <v>13</v>
       </c>
-      <c r="K25" s="7">
-        <f>J25*$C$5*$F$11</f>
-        <v>25.49729</v>
-      </c>
-    </row>
-    <row r="26" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z25" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F26" s="8"/>
       <c r="G26" s="9">
         <v>5</v>
       </c>
       <c r="H26" s="9">
+        <f>H24*$C$4*$C$5*0.0006/2</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="9">
+        <v>224</v>
+      </c>
+      <c r="K26" s="9">
+        <f>L22</f>
+        <v>224</v>
+      </c>
+      <c r="L26" s="10">
+        <f>L24*0.0006/2</f>
+        <v>8.031646349999999E-2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>328</v>
+      </c>
+      <c r="P26" s="1">
+        <f t="shared" si="5"/>
+        <v>5.5760000000000004E-2</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U26" s="8"/>
+      <c r="V26" s="9">
+        <v>5</v>
+      </c>
+      <c r="W26" s="9">
         <v>210.5</v>
       </c>
-      <c r="I26" s="9">
-        <v>224</v>
-      </c>
-      <c r="J26" s="9">
-        <f>I26-H26</f>
+      <c r="X26" s="9">
+        <v>224</v>
+      </c>
+      <c r="Y26" s="9">
+        <f>X26-W26</f>
         <v>13.5</v>
       </c>
-      <c r="K26" s="10">
-        <f>J26*$C$5*$F$11</f>
-        <v>26.477954999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z26" s="10">
+        <f>Z24*0.0006/2</f>
+        <v>0.131801376</v>
+      </c>
+    </row>
+    <row r="27" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O27" s="1">
+        <v>332</v>
+      </c>
+      <c r="P27" s="1">
+        <f t="shared" si="5"/>
+        <v>5.6440000000000004E-2</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F28" s="3" t="s">
         <v>6</v>
       </c>
@@ -1088,23 +1970,41 @@
         <v>10</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I28" s="4" t="s">
+      <c r="J28" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="K28" s="4"/>
+      <c r="L28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W28" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X28" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y28" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L28" s="1">
-        <f>AVERAGE(K29:K33)</f>
-        <v>25.301157</v>
-      </c>
-    </row>
-    <row r="29" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z28" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F29" s="6">
         <v>35</v>
       </c>
@@ -1112,41 +2012,120 @@
         <v>1</v>
       </c>
       <c r="H29" s="2">
+        <f>SUM(I29:I33)</f>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I29" s="2">
+        <f t="shared" ref="I29:I33" si="7">(J29-K29)^2</f>
+        <v>0.81000000000001027</v>
+      </c>
+      <c r="J29" s="2">
+        <v>224</v>
+      </c>
+      <c r="K29" s="2">
+        <f>L29</f>
+        <v>223.1</v>
+      </c>
+      <c r="L29" s="7">
+        <f>AVERAGE(J29:J33)</f>
+        <v>223.1</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U29" s="6">
+        <v>35</v>
+      </c>
+      <c r="V29" s="2">
+        <v>1</v>
+      </c>
+      <c r="W29" s="2">
         <v>211</v>
       </c>
-      <c r="I29" s="2">
-        <v>224</v>
-      </c>
-      <c r="J29" s="2">
-        <f>I29-H29</f>
+      <c r="X29" s="2">
+        <v>224</v>
+      </c>
+      <c r="Y29" s="2">
+        <f>X29-W29</f>
         <v>13</v>
       </c>
-      <c r="K29" s="7">
-        <f>J29*$C$5*$F$11</f>
-        <v>25.49729</v>
-      </c>
-    </row>
-    <row r="30" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z29" s="7">
+        <f>AVERAGE(X29:X33)</f>
+        <v>223.1</v>
+      </c>
+    </row>
+    <row r="30" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F30" s="6"/>
       <c r="G30" s="2">
         <v>2</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="2">
+        <f t="shared" si="7"/>
+        <v>9.999999999998864E-3</v>
+      </c>
+      <c r="J30" s="2">
+        <v>223</v>
+      </c>
+      <c r="K30" s="2">
+        <f>L29</f>
+        <v>223.1</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="1">
+        <v>295</v>
+      </c>
+      <c r="P30" s="1">
+        <f>P8+P19</f>
+        <v>0.13064298320000001</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R30" s="1">
+        <v>0</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U30" s="6"/>
+      <c r="V30" s="2">
+        <v>2</v>
+      </c>
+      <c r="W30" s="2">
         <v>210</v>
       </c>
-      <c r="I30" s="2">
+      <c r="X30" s="2">
         <v>223</v>
       </c>
-      <c r="J30" s="2">
-        <f>I30-H30</f>
+      <c r="Y30" s="2">
+        <f>X30-W30</f>
         <v>13</v>
       </c>
-      <c r="K30" s="7">
-        <f>J30*$C$5*$F$11</f>
-        <v>25.49729</v>
-      </c>
-    </row>
-    <row r="31" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z30" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F31" s="6" t="s">
         <v>1</v>
       </c>
@@ -1154,64 +2133,199 @@
         <v>3</v>
       </c>
       <c r="H31" s="2">
+        <f>SQRT(H29/4)</f>
+        <v>0.54772255750516619</v>
+      </c>
+      <c r="I31" s="2">
+        <f t="shared" si="7"/>
+        <v>9.999999999998864E-3</v>
+      </c>
+      <c r="J31" s="2">
+        <v>223</v>
+      </c>
+      <c r="K31" s="2">
+        <f>L29</f>
+        <v>223.1</v>
+      </c>
+      <c r="L31" s="7">
+        <f>L29*$C$4*$C$5-M29*$C$5*$P$3/1000</f>
+        <v>265.95634799999999</v>
+      </c>
+      <c r="O31" s="1">
+        <v>301</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" ref="P31:P38" si="8">P9+P20</f>
+        <v>0.13148646349999998</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R31" s="1">
+        <v>0</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V31" s="2">
+        <v>3</v>
+      </c>
+      <c r="W31" s="2">
         <v>210</v>
       </c>
-      <c r="I31" s="2">
+      <c r="X31" s="2">
         <v>223</v>
       </c>
-      <c r="J31" s="2">
-        <f>I31-H31</f>
+      <c r="Y31" s="2">
+        <f>X31-W31</f>
         <v>13</v>
       </c>
-      <c r="K31" s="7">
-        <f>J31*$C$5*$F$11</f>
-        <v>25.49729</v>
-      </c>
-    </row>
-    <row r="32" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z31" s="7">
+        <f>Z29*$C$4*$C$5-AA29*$C$5*$P$3/1000</f>
+        <v>437.572723</v>
+      </c>
+    </row>
+    <row r="32" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F32" s="6">
         <v>0.2</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I32" s="2">
+        <f t="shared" si="7"/>
+        <v>0.35999999999999316</v>
+      </c>
+      <c r="J32" s="2">
+        <v>222.5</v>
+      </c>
+      <c r="K32" s="2">
+        <f>L29</f>
+        <v>223.1</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="O32" s="1">
+        <v>305</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" si="8"/>
+        <v>0.1321664635</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R32" s="1">
+        <v>0</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="V32" s="2">
+        <v>4</v>
+      </c>
+      <c r="W32" s="2">
         <v>210</v>
       </c>
-      <c r="I32" s="2">
+      <c r="X32" s="2">
         <v>222.5</v>
       </c>
-      <c r="J32" s="2">
-        <f>I32-H32</f>
+      <c r="Y32" s="2">
+        <f>X32-W32</f>
         <v>12.5</v>
       </c>
-      <c r="K32" s="7">
-        <f>J32*$C$5*$F$11</f>
-        <v>24.516625000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z32" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F33" s="8"/>
       <c r="G33" s="9">
         <v>5</v>
       </c>
       <c r="H33" s="9">
+        <f>H31*$C$4*$C$5*0.0006/2</f>
+        <v>3.2227940511348228E-4</v>
+      </c>
+      <c r="I33" s="2">
+        <f t="shared" si="7"/>
+        <v>9.999999999998864E-3</v>
+      </c>
+      <c r="J33" s="9">
+        <v>223</v>
+      </c>
+      <c r="K33" s="9">
+        <f>L29</f>
+        <v>223.1</v>
+      </c>
+      <c r="L33" s="10">
+        <f>L31*0.0006/2</f>
+        <v>7.9786904399999997E-2</v>
+      </c>
+      <c r="O33" s="1">
+        <v>308</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" si="8"/>
+        <v>0.13214690439999999</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R33" s="1">
+        <v>0</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U33" s="8"/>
+      <c r="V33" s="9">
+        <v>5</v>
+      </c>
+      <c r="W33" s="9">
         <v>210</v>
       </c>
-      <c r="I33" s="9">
+      <c r="X33" s="9">
         <v>223</v>
       </c>
-      <c r="J33" s="9">
-        <f>I33-H33</f>
+      <c r="Y33" s="9">
+        <f>X33-W33</f>
         <v>13</v>
       </c>
-      <c r="K33" s="10">
-        <f>J33*$C$5*$F$11</f>
-        <v>25.49729</v>
-      </c>
-    </row>
-    <row r="34" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z33" s="10">
+        <f>Z31*0.0006/2</f>
+        <v>0.13127181689999998</v>
+      </c>
+    </row>
+    <row r="34" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O34" s="1">
+        <v>313</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" si="8"/>
+        <v>0.1322319857</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R34" s="1">
+        <v>0</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F35" s="3" t="s">
         <v>6</v>
       </c>
@@ -1219,23 +2333,57 @@
         <v>10</v>
       </c>
       <c r="H35" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I35" s="4" t="s">
+      <c r="J35" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="4" t="s">
+      <c r="K35" s="4"/>
+      <c r="L35" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O35" s="1">
+        <v>318</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" si="8"/>
+        <v>0.13214054729999999</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R35" s="1">
+        <v>0</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W35" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y35" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L35" s="1">
-        <f>AVERAGE(K36:K40)</f>
-        <v>25.105023999999997</v>
-      </c>
-    </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z35" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F36" s="6">
         <v>40</v>
       </c>
@@ -1243,41 +2391,121 @@
         <v>1</v>
       </c>
       <c r="H36" s="2">
+        <f>SUM(I36:I40)</f>
+        <v>0.8</v>
+      </c>
+      <c r="I36" s="2">
+        <f t="shared" ref="I36:I40" si="9">(J36-K36)^2</f>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="J36" s="2">
+        <v>222</v>
+      </c>
+      <c r="K36" s="2">
+        <f>L36</f>
+        <v>221.8</v>
+      </c>
+      <c r="L36" s="7">
+        <f>AVERAGE(J36:J40)</f>
+        <v>221.8</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O36" s="1">
+        <v>323</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" si="8"/>
+        <v>0.13140186999999998</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R36" s="1">
+        <v>0</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U36" s="6">
+        <v>40</v>
+      </c>
+      <c r="V36" s="2">
+        <v>1</v>
+      </c>
+      <c r="W36" s="2">
         <v>209</v>
       </c>
-      <c r="I36" s="2">
+      <c r="X36" s="2">
         <v>222</v>
       </c>
-      <c r="J36" s="2">
-        <f>I36-H36</f>
+      <c r="Y36" s="2">
+        <f>X36-W36</f>
         <v>13</v>
       </c>
-      <c r="K36" s="7">
-        <f>J36*$C$5*$F$11</f>
-        <v>25.49729</v>
-      </c>
-    </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z36" s="7">
+        <f>AVERAGE(X36:X40)</f>
+        <v>221.8</v>
+      </c>
+    </row>
+    <row r="37" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F37" s="6"/>
       <c r="G37" s="2">
         <v>2</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="2">
+        <f t="shared" si="9"/>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="J37" s="2">
+        <v>222</v>
+      </c>
+      <c r="K37" s="2">
+        <f>L36</f>
+        <v>221.8</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="1">
+        <v>328</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" si="8"/>
+        <v>0.1313692715</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R37" s="1">
+        <v>0</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U37" s="6"/>
+      <c r="V37" s="2">
+        <v>2</v>
+      </c>
+      <c r="W37" s="2">
         <v>209</v>
       </c>
-      <c r="I37" s="2">
+      <c r="X37" s="2">
         <v>222</v>
       </c>
-      <c r="J37" s="2">
-        <f>I37-H37</f>
+      <c r="Y37" s="2">
+        <f>X37-W37</f>
         <v>13</v>
       </c>
-      <c r="K37" s="7">
-        <f>J37*$C$5*$F$11</f>
-        <v>25.49729</v>
-      </c>
-    </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z37" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F38" s="6" t="s">
         <v>1</v>
       </c>
@@ -1285,64 +2513,150 @@
         <v>3</v>
       </c>
       <c r="H38" s="2">
+        <f>SQRT(H36/4)</f>
+        <v>0.44721359549995793</v>
+      </c>
+      <c r="I38" s="2">
+        <f t="shared" si="9"/>
+        <v>0.64000000000001822</v>
+      </c>
+      <c r="J38" s="2">
+        <v>221</v>
+      </c>
+      <c r="K38" s="2">
+        <f>L36</f>
+        <v>221.8</v>
+      </c>
+      <c r="L38" s="7">
+        <f>L36*$C$4*$C$5-M36*$C$5*$P$3/1000</f>
+        <v>263.40661900000003</v>
+      </c>
+      <c r="O38" s="1">
+        <v>332</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" si="8"/>
+        <v>0.13122551290000001</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R38" s="1">
+        <v>0</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" s="2">
+        <v>3</v>
+      </c>
+      <c r="W38" s="2">
         <v>209</v>
       </c>
-      <c r="I38" s="2">
+      <c r="X38" s="2">
         <v>221</v>
       </c>
-      <c r="J38" s="2">
-        <f>I38-H38</f>
+      <c r="Y38" s="2">
+        <f>X38-W38</f>
         <v>12</v>
       </c>
-      <c r="K38" s="7">
-        <f>J38*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z38" s="7">
+        <f>Z36*$C$4*$C$5-AA36*$C$5*$P$3/1000</f>
+        <v>435.02299400000004</v>
+      </c>
+    </row>
+    <row r="39" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F39" s="6">
         <v>0.2</v>
       </c>
       <c r="G39" s="2">
         <v>4</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" s="2">
+        <f t="shared" si="9"/>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="J39" s="2">
+        <v>222</v>
+      </c>
+      <c r="K39" s="2">
+        <f>L36</f>
+        <v>221.8</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U39" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="V39" s="2">
+        <v>4</v>
+      </c>
+      <c r="W39" s="2">
         <v>209</v>
       </c>
-      <c r="I39" s="2">
+      <c r="X39" s="2">
         <v>222</v>
       </c>
-      <c r="J39" s="2">
-        <f>I39-H39</f>
+      <c r="Y39" s="2">
+        <f>X39-W39</f>
         <v>13</v>
       </c>
-      <c r="K39" s="7">
-        <f>J39*$C$5*$F$11</f>
-        <v>25.49729</v>
-      </c>
-    </row>
-    <row r="40" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z39" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F40" s="8"/>
       <c r="G40" s="9">
         <v>5</v>
       </c>
       <c r="H40" s="9">
+        <f>H38*$C$4*$C$5*0.0006/2</f>
+        <v>2.6314003237857972E-4</v>
+      </c>
+      <c r="I40" s="2">
+        <f t="shared" si="9"/>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="J40" s="9">
+        <v>222</v>
+      </c>
+      <c r="K40" s="9">
+        <f>L36</f>
+        <v>221.8</v>
+      </c>
+      <c r="L40" s="10">
+        <f>L38*0.0006/2</f>
+        <v>7.9021985700000005E-2</v>
+      </c>
+      <c r="U40" s="8"/>
+      <c r="V40" s="9">
+        <v>5</v>
+      </c>
+      <c r="W40" s="9">
         <v>209</v>
       </c>
-      <c r="I40" s="9">
+      <c r="X40" s="9">
         <v>222</v>
       </c>
-      <c r="J40" s="9">
-        <f>I40-H40</f>
+      <c r="Y40" s="9">
+        <f>X40-W40</f>
         <v>13</v>
       </c>
-      <c r="K40" s="10">
-        <f>J40*$C$5*$F$11</f>
-        <v>25.49729</v>
-      </c>
-    </row>
-    <row r="41" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z40" s="10">
+        <f>Z38*0.0006/2</f>
+        <v>0.1305068982</v>
+      </c>
+    </row>
+    <row r="41" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F42" s="3" t="s">
         <v>6</v>
       </c>
@@ -1350,23 +2664,41 @@
         <v>10</v>
       </c>
       <c r="H42" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I42" s="4" t="s">
+      <c r="J42" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J42" s="4" t="s">
+      <c r="K42" s="4"/>
+      <c r="L42" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V42" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y42" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L42" s="1">
-        <f>AVERAGE(K43:K47)</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="43" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z42" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F43" s="6">
         <v>45</v>
       </c>
@@ -1374,41 +2706,89 @@
         <v>1</v>
       </c>
       <c r="H43" s="2">
+        <f>SUM(I43:I47)</f>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="I43" s="2">
+        <f t="shared" ref="I43:I47" si="10">(J43-K43)^2</f>
+        <v>0.64000000000001822</v>
+      </c>
+      <c r="J43" s="2">
+        <v>221</v>
+      </c>
+      <c r="K43" s="2">
+        <f>L43</f>
+        <v>220.2</v>
+      </c>
+      <c r="L43" s="7">
+        <f>AVERAGE(J43:J47)</f>
+        <v>220.2</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1000</v>
+      </c>
+      <c r="U43" s="6">
+        <v>45</v>
+      </c>
+      <c r="V43" s="2">
+        <v>1</v>
+      </c>
+      <c r="W43" s="2">
         <v>209</v>
       </c>
-      <c r="I43" s="2">
+      <c r="X43" s="2">
         <v>221</v>
       </c>
-      <c r="J43" s="2">
-        <f>I43-H43</f>
+      <c r="Y43" s="2">
+        <f>X43-W43</f>
         <v>12</v>
       </c>
-      <c r="K43" s="7">
-        <f>J43*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="44" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z43" s="7">
+        <f>AVERAGE(X43:X47)</f>
+        <v>220.2</v>
+      </c>
+    </row>
+    <row r="44" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F44" s="6"/>
       <c r="G44" s="2">
         <v>2</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="2">
+        <f t="shared" si="10"/>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="J44" s="2">
+        <v>220</v>
+      </c>
+      <c r="K44" s="2">
+        <f>L43</f>
+        <v>220.2</v>
+      </c>
+      <c r="L44" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U44" s="6"/>
+      <c r="V44" s="2">
+        <v>2</v>
+      </c>
+      <c r="W44" s="2">
         <v>208</v>
       </c>
-      <c r="I44" s="2">
+      <c r="X44" s="2">
         <v>220</v>
       </c>
-      <c r="J44" s="2">
-        <f>I44-H44</f>
+      <c r="Y44" s="2">
+        <f>X44-W44</f>
         <v>12</v>
       </c>
-      <c r="K44" s="7">
-        <f>J44*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z44" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F45" s="6" t="s">
         <v>1</v>
       </c>
@@ -1416,64 +2796,134 @@
         <v>3</v>
       </c>
       <c r="H45" s="2">
+        <f>SQRT(H43/4)</f>
+        <v>0.44721359549995798</v>
+      </c>
+      <c r="I45" s="2">
+        <f t="shared" si="10"/>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>220</v>
+      </c>
+      <c r="K45" s="2">
+        <f>L43</f>
+        <v>220.2</v>
+      </c>
+      <c r="L45" s="7">
+        <f>L43*$C$4*$C$5-M43*$C$5*$P$3/1000</f>
+        <v>260.26849099999998</v>
+      </c>
+      <c r="U45" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V45" s="2">
+        <v>3</v>
+      </c>
+      <c r="W45" s="2">
         <v>208</v>
       </c>
-      <c r="I45" s="2">
+      <c r="X45" s="2">
         <v>220</v>
       </c>
-      <c r="J45" s="2">
-        <f>I45-H45</f>
+      <c r="Y45" s="2">
+        <f>X45-W45</f>
         <v>12</v>
       </c>
-      <c r="K45" s="7">
-        <f>J45*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z45" s="7">
+        <f>Z43*$C$4*$C$5-AA43*$C$5*$P$3/1000</f>
+        <v>431.88486599999999</v>
+      </c>
+    </row>
+    <row r="46" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F46" s="6">
         <v>0.2</v>
       </c>
       <c r="G46" s="2">
         <v>4</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I46" s="2">
+        <f t="shared" si="10"/>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="J46" s="2">
+        <v>220</v>
+      </c>
+      <c r="K46" s="2">
+        <f>L43</f>
+        <v>220.2</v>
+      </c>
+      <c r="L46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U46" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="V46" s="2">
+        <v>4</v>
+      </c>
+      <c r="W46" s="2">
         <v>208</v>
       </c>
-      <c r="I46" s="2">
+      <c r="X46" s="2">
         <v>220</v>
       </c>
-      <c r="J46" s="2">
-        <f>I46-H46</f>
+      <c r="Y46" s="2">
+        <f>X46-W46</f>
         <v>12</v>
       </c>
-      <c r="K46" s="7">
-        <f>J46*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z46" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F47" s="8"/>
       <c r="G47" s="9">
         <v>5</v>
       </c>
       <c r="H47" s="9">
+        <f>H45*$C$4*$C$5*0.0006/2</f>
+        <v>2.6314003237857978E-4</v>
+      </c>
+      <c r="I47" s="2">
+        <f t="shared" si="10"/>
+        <v>3.9999999999995456E-2</v>
+      </c>
+      <c r="J47" s="9">
+        <v>220</v>
+      </c>
+      <c r="K47" s="9">
+        <f>L43</f>
+        <v>220.2</v>
+      </c>
+      <c r="L47" s="10">
+        <f>L45*0.0006/2</f>
+        <v>7.8080547299999983E-2</v>
+      </c>
+      <c r="U47" s="8"/>
+      <c r="V47" s="9">
+        <v>5</v>
+      </c>
+      <c r="W47" s="9">
         <v>208</v>
       </c>
-      <c r="I47" s="9">
+      <c r="X47" s="9">
         <v>220</v>
       </c>
-      <c r="J47" s="9">
-        <f>I47-H47</f>
+      <c r="Y47" s="9">
+        <f>X47-W47</f>
         <v>12</v>
       </c>
-      <c r="K47" s="10">
-        <f>J47*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="48" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z47" s="10">
+        <f>Z45*0.0006/2</f>
+        <v>0.12956545979999998</v>
+      </c>
+    </row>
+    <row r="48" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F49" s="3" t="s">
         <v>6</v>
       </c>
@@ -1481,23 +2931,41 @@
         <v>10</v>
       </c>
       <c r="H49" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I49" s="4" t="s">
+      <c r="J49" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J49" s="4" t="s">
+      <c r="K49" s="4"/>
+      <c r="L49" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V49" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X49" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y49" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L49" s="1">
-        <f>AVERAGE(K50:K54)</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="50" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z49" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F50" s="6">
         <v>50</v>
       </c>
@@ -1505,41 +2973,89 @@
         <v>1</v>
       </c>
       <c r="H50" s="2">
+        <f>SUM(I50:I54)</f>
+        <v>1</v>
+      </c>
+      <c r="I50" s="2">
+        <f t="shared" ref="I50:I54" si="11">(J50-K50)^2</f>
+        <v>0.25</v>
+      </c>
+      <c r="J50" s="2">
+        <v>217</v>
+      </c>
+      <c r="K50" s="2">
+        <f>L50</f>
+        <v>217.5</v>
+      </c>
+      <c r="L50" s="7">
+        <f>AVERAGE(J50:J54)</f>
+        <v>217.5</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1000</v>
+      </c>
+      <c r="U50" s="6">
+        <v>50</v>
+      </c>
+      <c r="V50" s="2">
+        <v>1</v>
+      </c>
+      <c r="W50" s="2">
         <v>205.5</v>
       </c>
-      <c r="I50" s="2">
+      <c r="X50" s="2">
         <v>217</v>
       </c>
-      <c r="J50" s="2">
-        <f>I50-H50</f>
+      <c r="Y50" s="2">
+        <f>X50-W50</f>
         <v>11.5</v>
       </c>
-      <c r="K50" s="7">
-        <f>J50*$C$5*$F$11</f>
-        <v>22.555295000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z50" s="7">
+        <f>AVERAGE(X50:X54)</f>
+        <v>217.5</v>
+      </c>
+    </row>
+    <row r="51" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F51" s="6"/>
       <c r="G51" s="2">
         <v>2</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="J51" s="2">
+        <v>217</v>
+      </c>
+      <c r="K51" s="2">
+        <f>L50</f>
+        <v>217.5</v>
+      </c>
+      <c r="L51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U51" s="6"/>
+      <c r="V51" s="2">
+        <v>2</v>
+      </c>
+      <c r="W51" s="2">
         <v>205</v>
       </c>
-      <c r="I51" s="2">
+      <c r="X51" s="2">
         <v>217</v>
       </c>
-      <c r="J51" s="2">
-        <f>I51-H51</f>
+      <c r="Y51" s="2">
+        <f>X51-W51</f>
         <v>12</v>
       </c>
-      <c r="K51" s="7">
-        <f>J51*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="52" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z51" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F52" s="6" t="s">
         <v>1</v>
       </c>
@@ -1547,64 +3063,134 @@
         <v>3</v>
       </c>
       <c r="H52" s="2">
+        <f>SQRT(H50/4)</f>
+        <v>0.5</v>
+      </c>
+      <c r="I52" s="2">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="2">
+        <v>217.5</v>
+      </c>
+      <c r="K52" s="2">
+        <f>L50</f>
+        <v>217.5</v>
+      </c>
+      <c r="L52" s="7">
+        <f>L50*$C$4*$C$5-M50*$C$5*$P$3/1000</f>
+        <v>254.97289999999998</v>
+      </c>
+      <c r="U52" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V52" s="2">
+        <v>3</v>
+      </c>
+      <c r="W52" s="2">
         <v>205</v>
       </c>
-      <c r="I52" s="2">
+      <c r="X52" s="2">
         <v>217.5</v>
       </c>
-      <c r="J52" s="2">
-        <f>I52-H52</f>
+      <c r="Y52" s="2">
+        <f>X52-W52</f>
         <v>12.5</v>
       </c>
-      <c r="K52" s="7">
-        <f>J52*$C$5*$F$11</f>
-        <v>24.516625000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z52" s="7">
+        <f>Z50*$C$4*$C$5-AA50*$C$5*$P$3/1000</f>
+        <v>426.58927499999999</v>
+      </c>
+    </row>
+    <row r="53" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F53" s="6">
         <v>0.2</v>
       </c>
       <c r="G53" s="2">
         <v>4</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I53" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="J53" s="2">
+        <v>218</v>
+      </c>
+      <c r="K53" s="2">
+        <f>L50</f>
+        <v>217.5</v>
+      </c>
+      <c r="L53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U53" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="V53" s="2">
+        <v>4</v>
+      </c>
+      <c r="W53" s="2">
         <v>206</v>
       </c>
-      <c r="I53" s="2">
+      <c r="X53" s="2">
         <v>218</v>
       </c>
-      <c r="J53" s="2">
-        <f>I53-H53</f>
+      <c r="Y53" s="2">
+        <f>X53-W53</f>
         <v>12</v>
       </c>
-      <c r="K53" s="7">
-        <f>J53*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="54" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z53" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F54" s="8"/>
       <c r="G54" s="9">
         <v>5</v>
       </c>
       <c r="H54" s="9">
+        <f>H52*$C$4*$C$5*0.0006/2</f>
+        <v>2.9419949999999999E-4</v>
+      </c>
+      <c r="I54" s="2">
+        <f t="shared" si="11"/>
+        <v>0.25</v>
+      </c>
+      <c r="J54" s="9">
+        <v>218</v>
+      </c>
+      <c r="K54" s="9">
+        <f>L50</f>
+        <v>217.5</v>
+      </c>
+      <c r="L54" s="10">
+        <f>L52*0.0006/2</f>
+        <v>7.649186999999999E-2</v>
+      </c>
+      <c r="U54" s="8"/>
+      <c r="V54" s="9">
+        <v>5</v>
+      </c>
+      <c r="W54" s="9">
         <v>206</v>
       </c>
-      <c r="I54" s="9">
+      <c r="X54" s="9">
         <v>218</v>
       </c>
-      <c r="J54" s="9">
-        <f>I54-H54</f>
+      <c r="Y54" s="9">
+        <f>X54-W54</f>
         <v>12</v>
       </c>
-      <c r="K54" s="10">
-        <f>J54*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z54" s="10">
+        <f>Z52*0.0006/2</f>
+        <v>0.1279767825</v>
+      </c>
+    </row>
+    <row r="55" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F56" s="3" t="s">
         <v>6</v>
       </c>
@@ -1612,23 +3198,41 @@
         <v>10</v>
       </c>
       <c r="H56" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I56" s="4" t="s">
+      <c r="J56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J56" s="4" t="s">
+      <c r="K56" s="4"/>
+      <c r="L56" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U56" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V56" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W56" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y56" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L56" s="1">
-        <f>AVERAGE(K57:K61)</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="57" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z56" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F57" s="6">
         <v>55</v>
       </c>
@@ -1636,41 +3240,89 @@
         <v>1</v>
       </c>
       <c r="H57" s="2">
+        <f>SUM(I57:I61)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2">
+        <f t="shared" ref="I57:I61" si="12">(J57-K57)^2</f>
+        <v>0</v>
+      </c>
+      <c r="J57" s="2">
+        <v>216</v>
+      </c>
+      <c r="K57" s="2">
+        <f>L57</f>
+        <v>216</v>
+      </c>
+      <c r="L57" s="7">
+        <f>AVERAGE(J57:J61)</f>
+        <v>216</v>
+      </c>
+      <c r="M57" s="1">
+        <v>1000</v>
+      </c>
+      <c r="U57" s="6">
+        <v>55</v>
+      </c>
+      <c r="V57" s="2">
+        <v>1</v>
+      </c>
+      <c r="W57" s="2">
         <v>204</v>
       </c>
-      <c r="I57" s="2">
+      <c r="X57" s="2">
         <v>216</v>
       </c>
-      <c r="J57" s="2">
-        <f>I57-H57</f>
+      <c r="Y57" s="2">
+        <f>X57-W57</f>
         <v>12</v>
       </c>
-      <c r="K57" s="7">
-        <f>J57*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="58" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z57" s="7">
+        <f>AVERAGE(X57:X61)</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="58" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F58" s="6"/>
       <c r="G58" s="2">
         <v>2</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="2">
+        <v>216</v>
+      </c>
+      <c r="K58" s="2">
+        <f>L57</f>
+        <v>216</v>
+      </c>
+      <c r="L58" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U58" s="6"/>
+      <c r="V58" s="2">
+        <v>2</v>
+      </c>
+      <c r="W58" s="2">
         <v>204</v>
       </c>
-      <c r="I58" s="2">
+      <c r="X58" s="2">
         <v>216</v>
       </c>
-      <c r="J58" s="2">
-        <f>I58-H58</f>
+      <c r="Y58" s="2">
+        <f>X58-W58</f>
         <v>12</v>
       </c>
-      <c r="K58" s="7">
-        <f>J58*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="59" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z58" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F59" s="6" t="s">
         <v>1</v>
       </c>
@@ -1678,64 +3330,134 @@
         <v>3</v>
       </c>
       <c r="H59" s="2">
+        <f>SQRT(H57/4)</f>
+        <v>0</v>
+      </c>
+      <c r="I59" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J59" s="2">
+        <v>216</v>
+      </c>
+      <c r="K59" s="2">
+        <f>L57</f>
+        <v>216</v>
+      </c>
+      <c r="L59" s="7">
+        <f>L57*$C$4*$C$5-M57*$C$5*$P$3/1000</f>
+        <v>252.03090500000002</v>
+      </c>
+      <c r="U59" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V59" s="2">
+        <v>3</v>
+      </c>
+      <c r="W59" s="2">
         <v>204</v>
       </c>
-      <c r="I59" s="2">
+      <c r="X59" s="2">
         <v>216</v>
       </c>
-      <c r="J59" s="2">
-        <f>I59-H59</f>
+      <c r="Y59" s="2">
+        <f>X59-W59</f>
         <v>12</v>
       </c>
-      <c r="K59" s="7">
-        <f>J59*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="60" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z59" s="7">
+        <f>Z57*$C$4*$C$5-AA57*$C$5*$P$3/1000</f>
+        <v>423.64728000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F60" s="6">
         <v>0.2</v>
       </c>
       <c r="G60" s="2">
         <v>4</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I60" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="2">
+        <v>216</v>
+      </c>
+      <c r="K60" s="2">
+        <f>L57</f>
+        <v>216</v>
+      </c>
+      <c r="L60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U60" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="V60" s="2">
+        <v>4</v>
+      </c>
+      <c r="W60" s="2">
         <v>204</v>
       </c>
-      <c r="I60" s="2">
+      <c r="X60" s="2">
         <v>216</v>
       </c>
-      <c r="J60" s="2">
-        <f>I60-H60</f>
+      <c r="Y60" s="2">
+        <f>X60-W60</f>
         <v>12</v>
       </c>
-      <c r="K60" s="7">
-        <f>J60*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="61" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z60" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F61" s="8"/>
       <c r="G61" s="9">
         <v>5</v>
       </c>
       <c r="H61" s="9">
+        <f>H59*$C$4*$C$5*0.0006/2</f>
+        <v>0</v>
+      </c>
+      <c r="I61" s="2">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="9">
+        <v>216</v>
+      </c>
+      <c r="K61" s="9">
+        <f>L57</f>
+        <v>216</v>
+      </c>
+      <c r="L61" s="10">
+        <f>L59*0.0006/2</f>
+        <v>7.5609271500000005E-2</v>
+      </c>
+      <c r="U61" s="8"/>
+      <c r="V61" s="9">
+        <v>5</v>
+      </c>
+      <c r="W61" s="9">
         <v>204</v>
       </c>
-      <c r="I61" s="9">
+      <c r="X61" s="9">
         <v>216</v>
       </c>
-      <c r="J61" s="9">
-        <f>I61-H61</f>
+      <c r="Y61" s="9">
+        <f>X61-W61</f>
         <v>12</v>
       </c>
-      <c r="K61" s="10">
-        <f>J61*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="6:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z61" s="10">
+        <f>Z59*0.0006/2</f>
+        <v>0.127094184</v>
+      </c>
+    </row>
+    <row r="62" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F63" s="3" t="s">
         <v>6</v>
       </c>
@@ -1743,23 +3465,41 @@
         <v>10</v>
       </c>
       <c r="H63" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I63" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="I63" s="4" t="s">
+      <c r="J63" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="J63" s="4" t="s">
+      <c r="K63" s="4"/>
+      <c r="L63" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="M63" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U63" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="V63" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W63" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="X63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y63" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="K63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="L63" s="1">
-        <f>AVERAGE(K64:K68)</f>
-        <v>23.143694000000004</v>
-      </c>
-    </row>
-    <row r="64" spans="6:12" x14ac:dyDescent="0.3">
+      <c r="Z63" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F64" s="6">
         <v>59</v>
       </c>
@@ -1767,41 +3507,89 @@
         <v>1</v>
       </c>
       <c r="H64" s="2">
+        <f>SUM(I64:I68)</f>
+        <v>1.2</v>
+      </c>
+      <c r="I64" s="2">
+        <f t="shared" ref="I64:I68" si="13">(J64-K64)^2</f>
+        <v>0.16000000000000456</v>
+      </c>
+      <c r="J64" s="2">
+        <v>215</v>
+      </c>
+      <c r="K64" s="2">
+        <f>L64</f>
+        <v>214.6</v>
+      </c>
+      <c r="L64" s="7">
+        <f>AVERAGE(J64:J68)</f>
+        <v>214.6</v>
+      </c>
+      <c r="M64" s="1">
+        <v>1000</v>
+      </c>
+      <c r="U64" s="6">
+        <v>59</v>
+      </c>
+      <c r="V64" s="2">
+        <v>1</v>
+      </c>
+      <c r="W64" s="2">
         <v>203</v>
       </c>
-      <c r="I64" s="2">
+      <c r="X64" s="2">
         <v>215</v>
       </c>
-      <c r="J64" s="2">
-        <f>I64-H64</f>
+      <c r="Y64" s="2">
+        <f>X64-W64</f>
         <v>12</v>
       </c>
-      <c r="K64" s="7">
-        <f>J64*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="Z64" s="7">
+        <f>AVERAGE(X64:X68)</f>
+        <v>214.6</v>
+      </c>
+    </row>
+    <row r="65" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F65" s="6"/>
       <c r="G65" s="2">
         <v>2</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="2">
+        <f t="shared" si="13"/>
+        <v>0.16000000000000456</v>
+      </c>
+      <c r="J65" s="2">
+        <v>215</v>
+      </c>
+      <c r="K65" s="2">
+        <f>L64</f>
+        <v>214.6</v>
+      </c>
+      <c r="L65" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="U65" s="6"/>
+      <c r="V65" s="2">
+        <v>2</v>
+      </c>
+      <c r="W65" s="2">
         <v>202.5</v>
       </c>
-      <c r="I65" s="2">
+      <c r="X65" s="2">
         <v>215</v>
       </c>
-      <c r="J65" s="2">
-        <f>I65-H65</f>
+      <c r="Y65" s="2">
+        <f>X65-W65</f>
         <v>12.5</v>
       </c>
-      <c r="K65" s="7">
-        <f>J65*$C$5*$F$11</f>
-        <v>24.516625000000001</v>
-      </c>
-    </row>
-    <row r="66" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="Z65" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F66" s="6" t="s">
         <v>1</v>
       </c>
@@ -1809,63 +3597,134 @@
         <v>3</v>
       </c>
       <c r="H66" s="2">
+        <f>SQRT(H64/4)</f>
+        <v>0.54772255750516607</v>
+      </c>
+      <c r="I66" s="2">
+        <f t="shared" si="13"/>
+        <v>0.16000000000000456</v>
+      </c>
+      <c r="J66" s="2">
+        <v>215</v>
+      </c>
+      <c r="K66" s="2">
+        <f>L64</f>
+        <v>214.6</v>
+      </c>
+      <c r="L66" s="7">
+        <f>L64*$C$4*$C$5-M64*$C$5*$P$3/1000</f>
+        <v>249.28504299999997</v>
+      </c>
+      <c r="U66" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="V66" s="2">
+        <v>3</v>
+      </c>
+      <c r="W66" s="2">
         <v>203</v>
       </c>
-      <c r="I66" s="2">
+      <c r="X66" s="2">
         <v>215</v>
       </c>
-      <c r="J66" s="2">
-        <f>I66-H66</f>
+      <c r="Y66" s="2">
+        <f>X66-W66</f>
         <v>12</v>
       </c>
-      <c r="K66" s="7">
-        <f>J66*$C$5*$F$11</f>
-        <v>23.535960000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="6:11" x14ac:dyDescent="0.3">
+      <c r="Z66" s="7">
+        <f>Z64*$C$4*$C$5-AA64*$C$5*$P$3/1000</f>
+        <v>420.90141799999998</v>
+      </c>
+    </row>
+    <row r="67" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F67" s="6">
         <v>0.2</v>
       </c>
       <c r="G67" s="2">
         <v>4</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I67" s="2">
+        <f t="shared" si="13"/>
+        <v>0.35999999999999316</v>
+      </c>
+      <c r="J67" s="2">
+        <v>214</v>
+      </c>
+      <c r="K67" s="2">
+        <f>L64</f>
+        <v>214.6</v>
+      </c>
+      <c r="L67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U67" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="V67" s="2">
+        <v>4</v>
+      </c>
+      <c r="W67" s="2">
         <v>202.5</v>
       </c>
-      <c r="I67" s="2">
+      <c r="X67" s="2">
         <v>214</v>
       </c>
-      <c r="J67" s="2">
-        <f>I67-H67</f>
+      <c r="Y67" s="2">
+        <f>X67-W67</f>
         <v>11.5</v>
       </c>
-      <c r="K67" s="7">
-        <f>J67*$C$5*$F$11</f>
-        <v>22.555295000000001</v>
-      </c>
-    </row>
-    <row r="68" spans="6:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="Z67" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F68" s="8"/>
       <c r="G68" s="9">
         <v>5</v>
       </c>
       <c r="H68" s="9">
+        <f>H66*$C$4*$C$5*0.0006/2</f>
+        <v>3.2227940511348223E-4</v>
+      </c>
+      <c r="I68" s="2">
+        <f t="shared" si="13"/>
+        <v>0.35999999999999316</v>
+      </c>
+      <c r="J68" s="9">
+        <v>214</v>
+      </c>
+      <c r="K68" s="9">
+        <f>L64</f>
+        <v>214.6</v>
+      </c>
+      <c r="L68" s="10">
+        <f>L66*0.0006/2</f>
+        <v>7.478551289999999E-2</v>
+      </c>
+      <c r="U68" s="8"/>
+      <c r="V68" s="9">
+        <v>5</v>
+      </c>
+      <c r="W68" s="9">
         <v>203</v>
       </c>
-      <c r="I68" s="9">
+      <c r="X68" s="9">
         <v>214</v>
       </c>
-      <c r="J68" s="9">
-        <f>I68-H68</f>
+      <c r="Y68" s="9">
+        <f>X68-W68</f>
         <v>11</v>
       </c>
-      <c r="K68" s="10">
-        <f>J68*$C$5*$F$11</f>
-        <v>21.574629999999999</v>
+      <c r="Z68" s="10">
+        <f>Z66*0.0006/2</f>
+        <v>0.12627042539999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2_semester/labs/lab_2_5_1/2_5_1.xlsx
+++ b/2_semester/labs/lab_2_5_1/2_5_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\mipt_dgap\2_semester\labs\lab_2_5_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mipt_dgap\2_semester\labs\lab_2_5_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1039DFD3-BB8A-4E9A-80E0-2C99ED1A6727}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A0F032-1E2A-4ADB-AB7C-0F93DB02194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{438C22A8-7B93-426B-B172-54550A05B405}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{438C22A8-7B93-426B-B172-54550A05B405}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="31">
   <si>
     <t>ед</t>
   </si>
@@ -125,18 +125,32 @@
   <si>
     <t>q</t>
   </si>
+  <si>
+    <t>ds/dt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -239,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -269,6 +283,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -587,21 +616,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA98A08D-1FA0-4A65-B8DB-055746EF8A50}">
   <dimension ref="B1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="12" width="8.85546875" style="1"/>
-    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="17" width="8.85546875" style="1"/>
-    <col min="18" max="18" width="10.28515625" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.85546875" style="1"/>
+    <col min="1" max="12" width="8.88671875" style="1"/>
+    <col min="13" max="13" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" style="11" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="1"/>
+    <col min="16" max="16" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="1"/>
+    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -630,7 +662,7 @@
       <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="11" t="s">
         <v>8</v>
       </c>
       <c r="O2" s="1" t="s">
@@ -658,7 +690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -686,7 +718,7 @@
         <v>14</v>
       </c>
       <c r="L3" s="7"/>
-      <c r="N3" s="1">
+      <c r="N3" s="11">
         <v>25.5</v>
       </c>
       <c r="O3" s="1">
@@ -714,7 +746,7 @@
       </c>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -753,7 +785,7 @@
       </c>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -792,7 +824,7 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -800,7 +832,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
@@ -864,7 +896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -936,7 +968,7 @@
         <v>224.3</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
       <c r="F9" s="6"/>
       <c r="G9" s="2">
         <v>2</v>
@@ -996,7 +1028,7 @@
         <v>224.3</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
       <c r="F10" s="6" t="s">
         <v>1</v>
       </c>
@@ -1062,7 +1094,7 @@
         <v>224.33333333333334</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
       <c r="F11" s="6">
         <v>0.2</v>
       </c>
@@ -1126,7 +1158,7 @@
         <v>224.16666666666666</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="8"/>
       <c r="G12" s="9">
         <v>5</v>
@@ -1188,7 +1220,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O13" s="1">
         <f>45+273</f>
         <v>318</v>
@@ -1208,7 +1240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
       <c r="F14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1268,7 +1300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
       <c r="F15" s="6">
         <v>28</v>
       </c>
@@ -1337,7 +1369,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
       <c r="F16" s="6"/>
       <c r="G16" s="2">
         <v>2</v>
@@ -1396,7 +1428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F17" s="6" t="s">
         <v>1</v>
       </c>
@@ -1444,7 +1476,7 @@
         <v>439.33792</v>
       </c>
     </row>
-    <row r="18" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F18" s="6">
         <v>0.2</v>
       </c>
@@ -1467,6 +1499,9 @@
       </c>
       <c r="L18" s="7" t="s">
         <v>18</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>30</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>6</v>
@@ -1504,7 +1539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F19" s="8"/>
       <c r="G19" s="9">
         <v>5</v>
@@ -1528,12 +1563,15 @@
         <f>L17*0.0006/2</f>
         <v>8.031646349999999E-2</v>
       </c>
+      <c r="N19" s="12">
+        <v>-2.9419833333336301E-5</v>
+      </c>
       <c r="O19" s="1">
         <v>295</v>
       </c>
-      <c r="P19" s="1">
-        <f>O19*0.00017</f>
-        <v>5.015E-2</v>
+      <c r="P19" s="15">
+        <f>-O19*N19</f>
+        <v>8.678850833334209E-3</v>
       </c>
       <c r="Q19" s="1">
         <v>0.2</v>
@@ -1564,13 +1602,16 @@
         <v>0.131801376</v>
       </c>
     </row>
-    <row r="20" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N20" s="13">
+        <v>2.4841304445577199E-18</v>
+      </c>
       <c r="O20" s="1">
         <v>301</v>
       </c>
-      <c r="P20" s="1">
-        <f t="shared" ref="P20:P27" si="5">O20*0.00017</f>
-        <v>5.1170000000000007E-2</v>
+      <c r="P20" s="15">
+        <f>-O20*N20</f>
+        <v>-7.4772326381187367E-16</v>
       </c>
       <c r="Q20" s="1">
         <v>0.2</v>
@@ -1582,7 +1623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1605,12 +1646,15 @@
       <c r="M21" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="N21" s="14">
+        <v>-1.76520000000001E-4</v>
+      </c>
       <c r="O21" s="1">
         <v>305</v>
       </c>
-      <c r="P21" s="1">
-        <f t="shared" si="5"/>
-        <v>5.1850000000000007E-2</v>
+      <c r="P21" s="15">
+        <f>-O21*N21</f>
+        <v>5.3838600000000306E-2</v>
       </c>
       <c r="Q21" s="1">
         <v>0.2</v>
@@ -1640,7 +1684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F22" s="6">
         <v>32</v>
       </c>
@@ -1652,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" ref="I22:I26" si="6">(J22-K22)^2</f>
+        <f t="shared" ref="I22:I26" si="5">(J22-K22)^2</f>
         <v>0</v>
       </c>
       <c r="J22" s="2">
@@ -1669,12 +1713,15 @@
       <c r="M22" s="1">
         <v>1000</v>
       </c>
+      <c r="N22" s="14">
+        <v>-1.5298360000000699E-4</v>
+      </c>
       <c r="O22" s="1">
         <v>308</v>
       </c>
-      <c r="P22" s="1">
-        <f t="shared" si="5"/>
-        <v>5.2360000000000004E-2</v>
+      <c r="P22" s="15">
+        <f>-O22*N22</f>
+        <v>4.7118948800002156E-2</v>
       </c>
       <c r="Q22" s="1">
         <v>0.2</v>
@@ -1706,7 +1753,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F23" s="6"/>
       <c r="G23" s="2">
         <v>2</v>
@@ -1715,7 +1762,7 @@
         <v>24</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J23" s="2">
@@ -1728,12 +1775,15 @@
       <c r="L23" s="7" t="s">
         <v>17</v>
       </c>
+      <c r="N23" s="14">
+        <v>-1.8828779999999199E-4</v>
+      </c>
       <c r="O23" s="1">
         <v>313</v>
       </c>
-      <c r="P23" s="1">
-        <f t="shared" si="5"/>
-        <v>5.3210000000000007E-2</v>
+      <c r="P23" s="15">
+        <f>-O23*N23</f>
+        <v>5.8934081399997493E-2</v>
       </c>
       <c r="Q23" s="1">
         <v>0.2</v>
@@ -1762,7 +1812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F24" s="6" t="s">
         <v>1</v>
       </c>
@@ -1774,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J24" s="2">
@@ -1788,12 +1838,15 @@
         <f>L22*$C$4*$C$5-M22*$C$5*$P$3/1000</f>
         <v>267.72154499999999</v>
       </c>
+      <c r="N24" s="14">
+        <v>-3.1773540000000402E-4</v>
+      </c>
       <c r="O24" s="1">
         <v>318</v>
       </c>
-      <c r="P24" s="1">
-        <f t="shared" si="5"/>
-        <v>5.4060000000000004E-2</v>
+      <c r="P24" s="15">
+        <f>-O24*N24</f>
+        <v>0.10103985720000128</v>
       </c>
       <c r="Q24" s="1">
         <v>0.2</v>
@@ -1825,7 +1878,7 @@
         <v>439.33792</v>
       </c>
     </row>
-    <row r="25" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F25" s="6">
         <v>0.2</v>
       </c>
@@ -1836,7 +1889,7 @@
         <v>25</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J25" s="2">
@@ -1849,12 +1902,15 @@
       <c r="L25" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="N25" s="14">
+        <v>-1.76519599999992E-4</v>
+      </c>
       <c r="O25" s="1">
         <v>323</v>
       </c>
-      <c r="P25" s="1">
-        <f t="shared" si="5"/>
-        <v>5.491E-2</v>
+      <c r="P25" s="15">
+        <f>-O25*N25</f>
+        <v>5.7015830799997419E-2</v>
       </c>
       <c r="Q25" s="1">
         <v>0.2</v>
@@ -1885,7 +1941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F26" s="8"/>
       <c r="G26" s="9">
         <v>5</v>
@@ -1895,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J26" s="9">
@@ -1909,12 +1965,15 @@
         <f>L24*0.0006/2</f>
         <v>8.031646349999999E-2</v>
       </c>
+      <c r="N26" s="14">
+        <v>-2.05939750000021E-4</v>
+      </c>
       <c r="O26" s="1">
         <v>328</v>
       </c>
-      <c r="P26" s="1">
-        <f t="shared" si="5"/>
-        <v>5.5760000000000004E-2</v>
+      <c r="P26" s="15">
+        <f>-O26*N26</f>
+        <v>6.7548238000006894E-2</v>
       </c>
       <c r="Q26" s="1">
         <v>0.2</v>
@@ -1944,13 +2003,16 @@
         <v>0.131801376</v>
       </c>
     </row>
-    <row r="27" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="N27" s="14">
+        <v>-2.05939750000021E-4</v>
+      </c>
       <c r="O27" s="1">
         <v>332</v>
       </c>
-      <c r="P27" s="1">
-        <f t="shared" si="5"/>
-        <v>5.6440000000000004E-2</v>
+      <c r="P27" s="15">
+        <f>-O27*N27</f>
+        <v>6.837199700000697E-2</v>
       </c>
       <c r="Q27" s="1">
         <v>0.2</v>
@@ -1962,7 +2024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F28" s="3" t="s">
         <v>6</v>
       </c>
@@ -2004,7 +2066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F29" s="6">
         <v>35</v>
       </c>
@@ -2016,7 +2078,7 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" ref="I29:I33" si="7">(J29-K29)^2</f>
+        <f t="shared" ref="I29:I33" si="6">(J29-K29)^2</f>
         <v>0.81000000000001027</v>
       </c>
       <c r="J29" s="2">
@@ -2069,7 +2131,7 @@
         <v>223.1</v>
       </c>
     </row>
-    <row r="30" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F30" s="6"/>
       <c r="G30" s="2">
         <v>2</v>
@@ -2078,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.999999999998864E-3</v>
       </c>
       <c r="J30" s="2">
@@ -2096,7 +2158,7 @@
       </c>
       <c r="P30" s="1">
         <f>P8+P19</f>
-        <v>0.13064298320000001</v>
+        <v>8.9171834033334216E-2</v>
       </c>
       <c r="Q30" s="1">
         <v>0.2</v>
@@ -2125,7 +2187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F31" s="6" t="s">
         <v>1</v>
       </c>
@@ -2137,7 +2199,7 @@
         <v>0.54772255750516619</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.999999999998864E-3</v>
       </c>
       <c r="J31" s="2">
@@ -2155,8 +2217,8 @@
         <v>301</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" ref="P31:P38" si="8">P9+P20</f>
-        <v>0.13148646349999998</v>
+        <f t="shared" ref="P31:P38" si="7">P9+P20</f>
+        <v>8.0316463499999241E-2</v>
       </c>
       <c r="Q31" s="1">
         <v>0.2</v>
@@ -2188,7 +2250,7 @@
         <v>437.572723</v>
       </c>
     </row>
-    <row r="32" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F32" s="6">
         <v>0.2</v>
       </c>
@@ -2199,7 +2261,7 @@
         <v>25</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>0.35999999999999316</v>
       </c>
       <c r="J32" s="2">
@@ -2216,8 +2278,8 @@
         <v>305</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="8"/>
-        <v>0.1321664635</v>
+        <f t="shared" si="7"/>
+        <v>0.13415506350000028</v>
       </c>
       <c r="Q32" s="1">
         <v>0.2</v>
@@ -2248,7 +2310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F33" s="8"/>
       <c r="G33" s="9">
         <v>5</v>
@@ -2258,7 +2320,7 @@
         <v>3.2227940511348228E-4</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>9.999999999998864E-3</v>
       </c>
       <c r="J33" s="9">
@@ -2276,8 +2338,8 @@
         <v>308</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="8"/>
-        <v>0.13214690439999999</v>
+        <f t="shared" si="7"/>
+        <v>0.12690585320000214</v>
       </c>
       <c r="Q33" s="1">
         <v>0.2</v>
@@ -2307,13 +2369,13 @@
         <v>0.13127181689999998</v>
       </c>
     </row>
-    <row r="34" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="O34" s="1">
         <v>313</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="8"/>
-        <v>0.1322319857</v>
+        <f t="shared" si="7"/>
+        <v>0.1379560670999975</v>
       </c>
       <c r="Q34" s="1">
         <v>0.2</v>
@@ -2325,7 +2387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F35" s="3" t="s">
         <v>6</v>
       </c>
@@ -2352,8 +2414,8 @@
         <v>318</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="8"/>
-        <v>0.13214054729999999</v>
+        <f t="shared" si="7"/>
+        <v>0.17912040450000127</v>
       </c>
       <c r="Q35" s="1">
         <v>0.2</v>
@@ -2383,7 +2445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F36" s="6">
         <v>40</v>
       </c>
@@ -2395,7 +2457,7 @@
         <v>0.8</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" ref="I36:I40" si="9">(J36-K36)^2</f>
+        <f t="shared" ref="I36:I40" si="8">(J36-K36)^2</f>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J36" s="2">
@@ -2416,8 +2478,8 @@
         <v>323</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="8"/>
-        <v>0.13140186999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.13350770079999741</v>
       </c>
       <c r="Q36" s="1">
         <v>0.2</v>
@@ -2449,7 +2511,7 @@
         <v>221.8</v>
       </c>
     </row>
-    <row r="37" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F37" s="6"/>
       <c r="G37" s="2">
         <v>2</v>
@@ -2458,7 +2520,7 @@
         <v>24</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J37" s="2">
@@ -2475,8 +2537,8 @@
         <v>328</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="8"/>
-        <v>0.1313692715</v>
+        <f t="shared" si="7"/>
+        <v>0.14315750950000689</v>
       </c>
       <c r="Q37" s="1">
         <v>0.2</v>
@@ -2505,7 +2567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F38" s="6" t="s">
         <v>1</v>
       </c>
@@ -2517,7 +2579,7 @@
         <v>0.44721359549995793</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0.64000000000001822</v>
       </c>
       <c r="J38" s="2">
@@ -2535,8 +2597,8 @@
         <v>332</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="8"/>
-        <v>0.13122551290000001</v>
+        <f t="shared" si="7"/>
+        <v>0.14315750990000697</v>
       </c>
       <c r="Q38" s="1">
         <v>0.2</v>
@@ -2568,7 +2630,7 @@
         <v>435.02299400000004</v>
       </c>
     </row>
-    <row r="39" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F39" s="6">
         <v>0.2</v>
       </c>
@@ -2579,7 +2641,7 @@
         <v>25</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J39" s="2">
@@ -2612,7 +2674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F40" s="8"/>
       <c r="G40" s="9">
         <v>5</v>
@@ -2622,7 +2684,7 @@
         <v>2.6314003237857972E-4</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J40" s="9">
@@ -2655,8 +2717,8 @@
         <v>0.1305068982</v>
       </c>
     </row>
-    <row r="41" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="42" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F42" s="3" t="s">
         <v>6</v>
       </c>
@@ -2698,7 +2760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F43" s="6">
         <v>45</v>
       </c>
@@ -2710,7 +2772,7 @@
         <v>0.80000000000000016</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" ref="I43:I47" si="10">(J43-K43)^2</f>
+        <f t="shared" ref="I43:I47" si="9">(J43-K43)^2</f>
         <v>0.64000000000001822</v>
       </c>
       <c r="J43" s="2">
@@ -2748,7 +2810,7 @@
         <v>220.2</v>
       </c>
     </row>
-    <row r="44" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F44" s="6"/>
       <c r="G44" s="2">
         <v>2</v>
@@ -2757,7 +2819,7 @@
         <v>24</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J44" s="2">
@@ -2788,7 +2850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F45" s="6" t="s">
         <v>1</v>
       </c>
@@ -2800,7 +2862,7 @@
         <v>0.44721359549995798</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J45" s="2">
@@ -2835,7 +2897,7 @@
         <v>431.88486599999999</v>
       </c>
     </row>
-    <row r="46" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F46" s="6">
         <v>0.2</v>
       </c>
@@ -2846,7 +2908,7 @@
         <v>25</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J46" s="2">
@@ -2879,7 +2941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F47" s="8"/>
       <c r="G47" s="9">
         <v>5</v>
@@ -2889,7 +2951,7 @@
         <v>2.6314003237857978E-4</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J47" s="9">
@@ -2922,8 +2984,8 @@
         <v>0.12956545979999998</v>
       </c>
     </row>
-    <row r="48" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="49" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="49" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F49" s="3" t="s">
         <v>6</v>
       </c>
@@ -2965,7 +3027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F50" s="6">
         <v>50</v>
       </c>
@@ -2977,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" ref="I50:I54" si="11">(J50-K50)^2</f>
+        <f t="shared" ref="I50:I54" si="10">(J50-K50)^2</f>
         <v>0.25</v>
       </c>
       <c r="J50" s="2">
@@ -3015,7 +3077,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="51" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F51" s="6"/>
       <c r="G51" s="2">
         <v>2</v>
@@ -3024,7 +3086,7 @@
         <v>24</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="J51" s="2">
@@ -3055,7 +3117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F52" s="6" t="s">
         <v>1</v>
       </c>
@@ -3067,7 +3129,7 @@
         <v>0.5</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J52" s="2">
@@ -3102,7 +3164,7 @@
         <v>426.58927499999999</v>
       </c>
     </row>
-    <row r="53" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F53" s="6">
         <v>0.2</v>
       </c>
@@ -3113,7 +3175,7 @@
         <v>25</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="J53" s="2">
@@ -3146,7 +3208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F54" s="8"/>
       <c r="G54" s="9">
         <v>5</v>
@@ -3156,7 +3218,7 @@
         <v>2.9419949999999999E-4</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0.25</v>
       </c>
       <c r="J54" s="9">
@@ -3189,8 +3251,8 @@
         <v>0.1279767825</v>
       </c>
     </row>
-    <row r="55" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="56" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F56" s="3" t="s">
         <v>6</v>
       </c>
@@ -3232,7 +3294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F57" s="6">
         <v>55</v>
       </c>
@@ -3244,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" ref="I57:I61" si="12">(J57-K57)^2</f>
+        <f t="shared" ref="I57:I61" si="11">(J57-K57)^2</f>
         <v>0</v>
       </c>
       <c r="J57" s="2">
@@ -3282,7 +3344,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F58" s="6"/>
       <c r="G58" s="2">
         <v>2</v>
@@ -3291,7 +3353,7 @@
         <v>24</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J58" s="2">
@@ -3322,7 +3384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F59" s="6" t="s">
         <v>1</v>
       </c>
@@ -3334,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J59" s="2">
@@ -3369,7 +3431,7 @@
         <v>423.64728000000002</v>
       </c>
     </row>
-    <row r="60" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F60" s="6">
         <v>0.2</v>
       </c>
@@ -3380,7 +3442,7 @@
         <v>25</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J60" s="2">
@@ -3413,7 +3475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F61" s="8"/>
       <c r="G61" s="9">
         <v>5</v>
@@ -3423,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J61" s="9">
@@ -3456,8 +3518,8 @@
         <v>0.127094184</v>
       </c>
     </row>
-    <row r="62" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F63" s="3" t="s">
         <v>6</v>
       </c>
@@ -3499,7 +3561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F64" s="6">
         <v>59</v>
       </c>
@@ -3511,7 +3573,7 @@
         <v>1.2</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" ref="I64:I68" si="13">(J64-K64)^2</f>
+        <f t="shared" ref="I64:I68" si="12">(J64-K64)^2</f>
         <v>0.16000000000000456</v>
       </c>
       <c r="J64" s="2">
@@ -3549,7 +3611,7 @@
         <v>214.6</v>
       </c>
     </row>
-    <row r="65" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F65" s="6"/>
       <c r="G65" s="2">
         <v>2</v>
@@ -3558,7 +3620,7 @@
         <v>24</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.16000000000000456</v>
       </c>
       <c r="J65" s="2">
@@ -3589,7 +3651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F66" s="6" t="s">
         <v>1</v>
       </c>
@@ -3601,7 +3663,7 @@
         <v>0.54772255750516607</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.16000000000000456</v>
       </c>
       <c r="J66" s="2">
@@ -3636,7 +3698,7 @@
         <v>420.90141799999998</v>
       </c>
     </row>
-    <row r="67" spans="6:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:26" x14ac:dyDescent="0.3">
       <c r="F67" s="6">
         <v>0.2</v>
       </c>
@@ -3647,7 +3709,7 @@
         <v>25</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.35999999999999316</v>
       </c>
       <c r="J67" s="2">
@@ -3680,7 +3742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F68" s="8"/>
       <c r="G68" s="9">
         <v>5</v>
@@ -3690,7 +3752,7 @@
         <v>3.2227940511348223E-4</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0.35999999999999316</v>
       </c>
       <c r="J68" s="9">
@@ -3725,6 +3787,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2_semester/labs/lab_2_5_1/2_5_1.xlsx
+++ b/2_semester/labs/lab_2_5_1/2_5_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mipt_dgap\2_semester\labs\lab_2_5_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\mipt_dgap\2_semester\labs\lab_2_5_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A0F032-1E2A-4ADB-AB7C-0F93DB02194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C33AA3-44CB-4696-85D8-D6989BAED4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{438C22A8-7B93-426B-B172-54550A05B405}"/>
+    <workbookView minimized="1" xWindow="1755" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{438C22A8-7B93-426B-B172-54550A05B405}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -616,24 +616,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA98A08D-1FA0-4A65-B8DB-055746EF8A50}">
   <dimension ref="B1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F14" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="12" width="8.88671875" style="1"/>
-    <col min="13" max="13" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.33203125" style="11" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="1"/>
-    <col min="16" max="16" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.88671875" style="1"/>
-    <col min="18" max="18" width="10.33203125" style="1" customWidth="1"/>
-    <col min="19" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="12" width="8.85546875" style="1"/>
+    <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.28515625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="1"/>
+    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.85546875" style="1"/>
+    <col min="18" max="18" width="10.28515625" style="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -690,12 +690,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>0.5</v>
+        <v>129</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -746,7 +746,7 @@
       </c>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -785,7 +785,7 @@
       </c>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -824,7 +824,7 @@
       </c>
       <c r="Z5" s="10"/>
     </row>
-    <row r="6" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>19</v>
       </c>
@@ -832,13 +832,13 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1">
         <f>C3*C4*C5</f>
-        <v>0.98066500000000001</v>
+        <v>253.01157000000001</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>6</v>
@@ -896,7 +896,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
@@ -968,7 +968,7 @@
         <v>224.3</v>
       </c>
     </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F9" s="6"/>
       <c r="G9" s="2">
         <v>2</v>
@@ -1028,7 +1028,7 @@
         <v>224.3</v>
       </c>
     </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F10" s="6" t="s">
         <v>1</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>224.33333333333334</v>
       </c>
     </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F11" s="6">
         <v>0.2</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>224.16666666666666</v>
       </c>
     </row>
-    <row r="12" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="8"/>
       <c r="G12" s="9">
         <v>5</v>
@@ -1220,7 +1220,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="13" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O13" s="1">
         <f>45+273</f>
         <v>318</v>
@@ -1240,7 +1240,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F14" s="3" t="s">
         <v>6</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F15" s="6">
         <v>28</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" x14ac:dyDescent="0.25">
       <c r="F16" s="6"/>
       <c r="G16" s="2">
         <v>2</v>
@@ -1428,7 +1428,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F17" s="6" t="s">
         <v>1</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>439.33792</v>
       </c>
     </row>
-    <row r="18" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F18" s="6">
         <v>0.2</v>
       </c>
@@ -1539,7 +1539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F19" s="8"/>
       <c r="G19" s="9">
         <v>5</v>
@@ -1570,7 +1570,7 @@
         <v>295</v>
       </c>
       <c r="P19" s="15">
-        <f>-O19*N19</f>
+        <f t="shared" ref="P19:P27" si="5">-O19*N19</f>
         <v>8.678850833334209E-3</v>
       </c>
       <c r="Q19" s="1">
@@ -1602,7 +1602,7 @@
         <v>0.131801376</v>
       </c>
     </row>
-    <row r="20" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N20" s="13">
         <v>2.4841304445577199E-18</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>301</v>
       </c>
       <c r="P20" s="15">
-        <f>-O20*N20</f>
+        <f t="shared" si="5"/>
         <v>-7.4772326381187367E-16</v>
       </c>
       <c r="Q20" s="1">
@@ -1623,7 +1623,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F21" s="3" t="s">
         <v>6</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>305</v>
       </c>
       <c r="P21" s="15">
-        <f>-O21*N21</f>
+        <f t="shared" si="5"/>
         <v>5.3838600000000306E-2</v>
       </c>
       <c r="Q21" s="1">
@@ -1684,7 +1684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F22" s="6">
         <v>32</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" ref="I22:I26" si="5">(J22-K22)^2</f>
+        <f t="shared" ref="I22:I26" si="6">(J22-K22)^2</f>
         <v>0</v>
       </c>
       <c r="J22" s="2">
@@ -1720,7 +1720,7 @@
         <v>308</v>
       </c>
       <c r="P22" s="15">
-        <f>-O22*N22</f>
+        <f t="shared" si="5"/>
         <v>4.7118948800002156E-2</v>
       </c>
       <c r="Q22" s="1">
@@ -1753,7 +1753,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="23" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F23" s="6"/>
       <c r="G23" s="2">
         <v>2</v>
@@ -1762,7 +1762,7 @@
         <v>24</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J23" s="2">
@@ -1782,7 +1782,7 @@
         <v>313</v>
       </c>
       <c r="P23" s="15">
-        <f>-O23*N23</f>
+        <f t="shared" si="5"/>
         <v>5.8934081399997493E-2</v>
       </c>
       <c r="Q23" s="1">
@@ -1812,7 +1812,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F24" s="6" t="s">
         <v>1</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J24" s="2">
@@ -1845,7 +1845,7 @@
         <v>318</v>
       </c>
       <c r="P24" s="15">
-        <f>-O24*N24</f>
+        <f t="shared" si="5"/>
         <v>0.10103985720000128</v>
       </c>
       <c r="Q24" s="1">
@@ -1878,7 +1878,7 @@
         <v>439.33792</v>
       </c>
     </row>
-    <row r="25" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F25" s="6">
         <v>0.2</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>25</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J25" s="2">
@@ -1909,7 +1909,7 @@
         <v>323</v>
       </c>
       <c r="P25" s="15">
-        <f>-O25*N25</f>
+        <f t="shared" si="5"/>
         <v>5.7015830799997419E-2</v>
       </c>
       <c r="Q25" s="1">
@@ -1941,7 +1941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F26" s="8"/>
       <c r="G26" s="9">
         <v>5</v>
@@ -1951,7 +1951,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J26" s="9">
@@ -1972,7 +1972,7 @@
         <v>328</v>
       </c>
       <c r="P26" s="15">
-        <f>-O26*N26</f>
+        <f t="shared" si="5"/>
         <v>6.7548238000006894E-2</v>
       </c>
       <c r="Q26" s="1">
@@ -2003,7 +2003,7 @@
         <v>0.131801376</v>
       </c>
     </row>
-    <row r="27" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="N27" s="14">
         <v>-2.05939750000021E-4</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>332</v>
       </c>
       <c r="P27" s="15">
-        <f>-O27*N27</f>
+        <f t="shared" si="5"/>
         <v>6.837199700000697E-2</v>
       </c>
       <c r="Q27" s="1">
@@ -2024,7 +2024,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F28" s="3" t="s">
         <v>6</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F29" s="6">
         <v>35</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>1.2000000000000002</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" ref="I29:I33" si="6">(J29-K29)^2</f>
+        <f t="shared" ref="I29:I33" si="7">(J29-K29)^2</f>
         <v>0.81000000000001027</v>
       </c>
       <c r="J29" s="2">
@@ -2131,7 +2131,7 @@
         <v>223.1</v>
       </c>
     </row>
-    <row r="30" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F30" s="6"/>
       <c r="G30" s="2">
         <v>2</v>
@@ -2140,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.999999999998864E-3</v>
       </c>
       <c r="J30" s="2">
@@ -2187,7 +2187,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F31" s="6" t="s">
         <v>1</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>0.54772255750516619</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.999999999998864E-3</v>
       </c>
       <c r="J31" s="2">
@@ -2217,7 +2217,7 @@
         <v>301</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" ref="P31:P38" si="7">P9+P20</f>
+        <f t="shared" ref="P31:P38" si="8">P9+P20</f>
         <v>8.0316463499999241E-2</v>
       </c>
       <c r="Q31" s="1">
@@ -2250,7 +2250,7 @@
         <v>437.572723</v>
       </c>
     </row>
-    <row r="32" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F32" s="6">
         <v>0.2</v>
       </c>
@@ -2261,7 +2261,7 @@
         <v>25</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.35999999999999316</v>
       </c>
       <c r="J32" s="2">
@@ -2278,7 +2278,7 @@
         <v>305</v>
       </c>
       <c r="P32" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13415506350000028</v>
       </c>
       <c r="Q32" s="1">
@@ -2310,7 +2310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F33" s="8"/>
       <c r="G33" s="9">
         <v>5</v>
@@ -2320,7 +2320,7 @@
         <v>3.2227940511348228E-4</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9.999999999998864E-3</v>
       </c>
       <c r="J33" s="9">
@@ -2338,7 +2338,7 @@
         <v>308</v>
       </c>
       <c r="P33" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12690585320000214</v>
       </c>
       <c r="Q33" s="1">
@@ -2369,12 +2369,12 @@
         <v>0.13127181689999998</v>
       </c>
     </row>
-    <row r="34" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="O34" s="1">
         <v>313</v>
       </c>
       <c r="P34" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1379560670999975</v>
       </c>
       <c r="Q34" s="1">
@@ -2387,7 +2387,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F35" s="3" t="s">
         <v>6</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>318</v>
       </c>
       <c r="P35" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.17912040450000127</v>
       </c>
       <c r="Q35" s="1">
@@ -2445,7 +2445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F36" s="6">
         <v>40</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>0.8</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" ref="I36:I40" si="8">(J36-K36)^2</f>
+        <f t="shared" ref="I36:I40" si="9">(J36-K36)^2</f>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J36" s="2">
@@ -2478,7 +2478,7 @@
         <v>323</v>
       </c>
       <c r="P36" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13350770079999741</v>
       </c>
       <c r="Q36" s="1">
@@ -2511,7 +2511,7 @@
         <v>221.8</v>
       </c>
     </row>
-    <row r="37" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F37" s="6"/>
       <c r="G37" s="2">
         <v>2</v>
@@ -2520,7 +2520,7 @@
         <v>24</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J37" s="2">
@@ -2537,7 +2537,7 @@
         <v>328</v>
       </c>
       <c r="P37" s="1">
-        <f t="shared" si="7"/>
+        <f>P15+P26</f>
         <v>0.14315750950000689</v>
       </c>
       <c r="Q37" s="1">
@@ -2567,7 +2567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F38" s="6" t="s">
         <v>1</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>0.44721359549995793</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.64000000000001822</v>
       </c>
       <c r="J38" s="2">
@@ -2597,7 +2597,7 @@
         <v>332</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" si="7"/>
+        <f>P16+P27</f>
         <v>0.14315750990000697</v>
       </c>
       <c r="Q38" s="1">
@@ -2630,7 +2630,7 @@
         <v>435.02299400000004</v>
       </c>
     </row>
-    <row r="39" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F39" s="6">
         <v>0.2</v>
       </c>
@@ -2641,7 +2641,7 @@
         <v>25</v>
       </c>
       <c r="I39" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J39" s="2">
@@ -2674,7 +2674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F40" s="8"/>
       <c r="G40" s="9">
         <v>5</v>
@@ -2684,7 +2684,7 @@
         <v>2.6314003237857972E-4</v>
       </c>
       <c r="I40" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J40" s="9">
@@ -2717,8 +2717,8 @@
         <v>0.1305068982</v>
       </c>
     </row>
-    <row r="41" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="42" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="41" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F42" s="3" t="s">
         <v>6</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F43" s="6">
         <v>45</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>0.80000000000000016</v>
       </c>
       <c r="I43" s="2">
-        <f t="shared" ref="I43:I47" si="9">(J43-K43)^2</f>
+        <f t="shared" ref="I43:I47" si="10">(J43-K43)^2</f>
         <v>0.64000000000001822</v>
       </c>
       <c r="J43" s="2">
@@ -2810,7 +2810,7 @@
         <v>220.2</v>
       </c>
     </row>
-    <row r="44" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F44" s="6"/>
       <c r="G44" s="2">
         <v>2</v>
@@ -2819,7 +2819,7 @@
         <v>24</v>
       </c>
       <c r="I44" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J44" s="2">
@@ -2850,7 +2850,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F45" s="6" t="s">
         <v>1</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>0.44721359549995798</v>
       </c>
       <c r="I45" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J45" s="2">
@@ -2897,7 +2897,7 @@
         <v>431.88486599999999</v>
       </c>
     </row>
-    <row r="46" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F46" s="6">
         <v>0.2</v>
       </c>
@@ -2908,7 +2908,7 @@
         <v>25</v>
       </c>
       <c r="I46" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J46" s="2">
@@ -2941,7 +2941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F47" s="8"/>
       <c r="G47" s="9">
         <v>5</v>
@@ -2951,7 +2951,7 @@
         <v>2.6314003237857978E-4</v>
       </c>
       <c r="I47" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.9999999999995456E-2</v>
       </c>
       <c r="J47" s="9">
@@ -2984,8 +2984,8 @@
         <v>0.12956545979999998</v>
       </c>
     </row>
-    <row r="48" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F49" s="3" t="s">
         <v>6</v>
       </c>
@@ -3027,7 +3027,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F50" s="6">
         <v>50</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="2">
-        <f t="shared" ref="I50:I54" si="10">(J50-K50)^2</f>
+        <f t="shared" ref="I50:I54" si="11">(J50-K50)^2</f>
         <v>0.25</v>
       </c>
       <c r="J50" s="2">
@@ -3077,7 +3077,7 @@
         <v>217.5</v>
       </c>
     </row>
-    <row r="51" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="51" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F51" s="6"/>
       <c r="G51" s="2">
         <v>2</v>
@@ -3086,7 +3086,7 @@
         <v>24</v>
       </c>
       <c r="I51" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
       <c r="J51" s="2">
@@ -3117,7 +3117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="52" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F52" s="6" t="s">
         <v>1</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>0.5</v>
       </c>
       <c r="I52" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J52" s="2">
@@ -3164,7 +3164,7 @@
         <v>426.58927499999999</v>
       </c>
     </row>
-    <row r="53" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="53" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F53" s="6">
         <v>0.2</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>25</v>
       </c>
       <c r="I53" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
       <c r="J53" s="2">
@@ -3208,7 +3208,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F54" s="8"/>
       <c r="G54" s="9">
         <v>5</v>
@@ -3218,7 +3218,7 @@
         <v>2.9419949999999999E-4</v>
       </c>
       <c r="I54" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.25</v>
       </c>
       <c r="J54" s="9">
@@ -3251,8 +3251,8 @@
         <v>0.1279767825</v>
       </c>
     </row>
-    <row r="55" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="56" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="55" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F56" s="3" t="s">
         <v>6</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="57" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F57" s="6">
         <v>55</v>
       </c>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="I57" s="2">
-        <f t="shared" ref="I57:I61" si="11">(J57-K57)^2</f>
+        <f t="shared" ref="I57:I61" si="12">(J57-K57)^2</f>
         <v>0</v>
       </c>
       <c r="J57" s="2">
@@ -3344,7 +3344,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="58" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F58" s="6"/>
       <c r="G58" s="2">
         <v>2</v>
@@ -3353,7 +3353,7 @@
         <v>24</v>
       </c>
       <c r="I58" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J58" s="2">
@@ -3384,7 +3384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="59" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F59" s="6" t="s">
         <v>1</v>
       </c>
@@ -3396,7 +3396,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J59" s="2">
@@ -3431,7 +3431,7 @@
         <v>423.64728000000002</v>
       </c>
     </row>
-    <row r="60" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="60" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F60" s="6">
         <v>0.2</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>25</v>
       </c>
       <c r="I60" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J60" s="2">
@@ -3475,7 +3475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F61" s="8"/>
       <c r="G61" s="9">
         <v>5</v>
@@ -3485,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="I61" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J61" s="9">
@@ -3518,8 +3518,8 @@
         <v>0.127094184</v>
       </c>
     </row>
-    <row r="62" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="62" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F63" s="3" t="s">
         <v>6</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="64" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F64" s="6">
         <v>59</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>1.2</v>
       </c>
       <c r="I64" s="2">
-        <f t="shared" ref="I64:I68" si="12">(J64-K64)^2</f>
+        <f t="shared" ref="I64:I68" si="13">(J64-K64)^2</f>
         <v>0.16000000000000456</v>
       </c>
       <c r="J64" s="2">
@@ -3611,7 +3611,7 @@
         <v>214.6</v>
       </c>
     </row>
-    <row r="65" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F65" s="6"/>
       <c r="G65" s="2">
         <v>2</v>
@@ -3620,7 +3620,7 @@
         <v>24</v>
       </c>
       <c r="I65" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.16000000000000456</v>
       </c>
       <c r="J65" s="2">
@@ -3651,7 +3651,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F66" s="6" t="s">
         <v>1</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>0.54772255750516607</v>
       </c>
       <c r="I66" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.16000000000000456</v>
       </c>
       <c r="J66" s="2">
@@ -3698,7 +3698,7 @@
         <v>420.90141799999998</v>
       </c>
     </row>
-    <row r="67" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="6:26" x14ac:dyDescent="0.25">
       <c r="F67" s="6">
         <v>0.2</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>25</v>
       </c>
       <c r="I67" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.35999999999999316</v>
       </c>
       <c r="J67" s="2">
@@ -3742,7 +3742,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="6:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="6:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F68" s="8"/>
       <c r="G68" s="9">
         <v>5</v>
@@ -3752,7 +3752,7 @@
         <v>3.2227940511348223E-4</v>
       </c>
       <c r="I68" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.35999999999999316</v>
       </c>
       <c r="J68" s="9">

--- a/2_semester/labs/lab_2_5_1/2_5_1.xlsx
+++ b/2_semester/labs/lab_2_5_1/2_5_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George\Documents\mipt_dgap\2_semester\labs\lab_2_5_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C33AA3-44CB-4696-85D8-D6989BAED4E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A951BB1B-C6BB-4259-9F6D-DD88ADFAB693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1755" yWindow="0" windowWidth="21600" windowHeight="11385" xr2:uid="{438C22A8-7B93-426B-B172-54550A05B405}"/>
+    <workbookView minimized="1" xWindow="1755" yWindow="0" windowWidth="25095" windowHeight="11385" xr2:uid="{438C22A8-7B93-426B-B172-54550A05B405}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,6 +133,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -297,7 +300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -616,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA98A08D-1FA0-4A65-B8DB-055746EF8A50}">
   <dimension ref="B1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="108" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="O29" sqref="O29:P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,7 +629,7 @@
     <col min="13" max="13" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="26.28515625" style="11" customWidth="1"/>
     <col min="15" max="15" width="8.85546875" style="1"/>
-    <col min="16" max="16" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8.85546875" style="1"/>
     <col min="18" max="18" width="10.28515625" style="1" customWidth="1"/>
     <col min="19" max="16384" width="8.85546875" style="1"/>
@@ -695,7 +698,8 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>129</v>
+        <f>224-129</f>
+        <v>95</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
@@ -838,7 +842,7 @@
       </c>
       <c r="C7" s="1">
         <f>C3*C4*C5</f>
-        <v>253.01157000000001</v>
+        <v>186.32634999999999</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>6</v>
@@ -932,14 +936,14 @@
         <f>22+273</f>
         <v>295</v>
       </c>
-      <c r="P8" s="1">
+      <c r="P8" s="15">
         <f>L12</f>
         <v>8.0492983200000007E-2</v>
       </c>
       <c r="Q8" s="1">
         <v>0.2</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="15">
         <f>SQRT(H12^2+0.0006^2)</f>
         <v>6.2126162261970993E-4</v>
       </c>
@@ -994,14 +998,14 @@
         <f>28+273</f>
         <v>301</v>
       </c>
-      <c r="P9" s="1">
+      <c r="P9" s="15">
         <f>L19</f>
         <v>8.031646349999999E-2</v>
       </c>
       <c r="Q9" s="1">
         <v>0.2</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="15">
         <f>SQRT(H19^2+0.0006^2)</f>
         <v>5.9999999999999995E-4</v>
       </c>
@@ -1058,14 +1062,14 @@
         <f>32+273</f>
         <v>305</v>
       </c>
-      <c r="P10" s="1">
+      <c r="P10" s="15">
         <f>L26</f>
         <v>8.031646349999999E-2</v>
       </c>
       <c r="Q10" s="1">
         <v>0.2</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="15">
         <f>SQRT(H26^2+0.0006^2)</f>
         <v>5.9999999999999995E-4</v>
       </c>
@@ -1122,14 +1126,14 @@
         <f>35+273</f>
         <v>308</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P11" s="15">
         <f>L33</f>
         <v>7.9786904399999997E-2</v>
       </c>
       <c r="Q11" s="1">
         <v>0.2</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="15">
         <f>SQRT(H33^2+0.0006^2)</f>
         <v>6.8107563086657269E-4</v>
       </c>
@@ -1186,14 +1190,14 @@
         <f>40+273</f>
         <v>313</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P12" s="15">
         <f>L40</f>
         <v>7.9021985700000005E-2</v>
       </c>
       <c r="Q12" s="1">
         <v>0.2</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R12" s="15">
         <f>SQRT(H40^2+0.0006^2)</f>
         <v>6.551661443024967E-4</v>
       </c>
@@ -1225,14 +1229,14 @@
         <f>45+273</f>
         <v>318</v>
       </c>
-      <c r="P13" s="1">
+      <c r="P13" s="15">
         <f>L47</f>
         <v>7.8080547299999983E-2</v>
       </c>
       <c r="Q13" s="1">
         <v>0.2</v>
       </c>
-      <c r="R13" s="1">
+      <c r="R13" s="15">
         <f>SQRT(H47^2+0.0006^2)</f>
         <v>6.551661443024967E-4</v>
       </c>
@@ -1267,14 +1271,14 @@
         <f>50+273</f>
         <v>323</v>
       </c>
-      <c r="P14" s="1">
+      <c r="P14" s="15">
         <f>L54</f>
         <v>7.649186999999999E-2</v>
       </c>
       <c r="Q14" s="1">
         <v>0.2</v>
       </c>
-      <c r="R14" s="1">
+      <c r="R14" s="15">
         <f>SQRT(H54^2+0.0006^2)</f>
         <v>6.6824647084758331E-4</v>
       </c>
@@ -1333,14 +1337,14 @@
         <f>55+273</f>
         <v>328</v>
       </c>
-      <c r="P15" s="1">
+      <c r="P15" s="15">
         <f>L61</f>
         <v>7.5609271500000005E-2</v>
       </c>
       <c r="Q15" s="1">
         <v>0.2</v>
       </c>
-      <c r="R15" s="1">
+      <c r="R15" s="15">
         <f>SQRT(H61^2+0.0006^2)</f>
         <v>5.9999999999999995E-4</v>
       </c>
@@ -1395,14 +1399,14 @@
         <f>59+273</f>
         <v>332</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P16" s="15">
         <f>L68</f>
         <v>7.478551289999999E-2</v>
       </c>
       <c r="Q16" s="1">
         <v>0.2</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R16" s="15">
         <f>SQRT(H68^2+0.0006^2)</f>
         <v>6.8107563086657269E-4</v>
       </c>
@@ -2156,7 +2160,7 @@
       <c r="O30" s="1">
         <v>295</v>
       </c>
-      <c r="P30" s="1">
+      <c r="P30" s="15">
         <f>P8+P19</f>
         <v>8.9171834033334216E-2</v>
       </c>
@@ -2216,8 +2220,8 @@
       <c r="O31" s="1">
         <v>301</v>
       </c>
-      <c r="P31" s="1">
-        <f t="shared" ref="P31:P38" si="8">P9+P20</f>
+      <c r="P31" s="15">
+        <f t="shared" ref="P31:P36" si="8">P9+P20</f>
         <v>8.0316463499999241E-2</v>
       </c>
       <c r="Q31" s="1">
@@ -2277,7 +2281,7 @@
       <c r="O32" s="1">
         <v>305</v>
       </c>
-      <c r="P32" s="1">
+      <c r="P32" s="15">
         <f t="shared" si="8"/>
         <v>0.13415506350000028</v>
       </c>
@@ -2337,7 +2341,7 @@
       <c r="O33" s="1">
         <v>308</v>
       </c>
-      <c r="P33" s="1">
+      <c r="P33" s="15">
         <f t="shared" si="8"/>
         <v>0.12690585320000214</v>
       </c>
@@ -2373,7 +2377,7 @@
       <c r="O34" s="1">
         <v>313</v>
       </c>
-      <c r="P34" s="1">
+      <c r="P34" s="15">
         <f t="shared" si="8"/>
         <v>0.1379560670999975</v>
       </c>
@@ -2413,7 +2417,7 @@
       <c r="O35" s="1">
         <v>318</v>
       </c>
-      <c r="P35" s="1">
+      <c r="P35" s="15">
         <f t="shared" si="8"/>
         <v>0.17912040450000127</v>
       </c>
@@ -2477,7 +2481,7 @@
       <c r="O36" s="1">
         <v>323</v>
       </c>
-      <c r="P36" s="1">
+      <c r="P36" s="15">
         <f t="shared" si="8"/>
         <v>0.13350770079999741</v>
       </c>
@@ -2536,7 +2540,7 @@
       <c r="O37" s="1">
         <v>328</v>
       </c>
-      <c r="P37" s="1">
+      <c r="P37" s="15">
         <f>P15+P26</f>
         <v>0.14315750950000689</v>
       </c>
@@ -2596,7 +2600,7 @@
       <c r="O38" s="1">
         <v>332</v>
       </c>
-      <c r="P38" s="1">
+      <c r="P38" s="15">
         <f>P16+P27</f>
         <v>0.14315750990000697</v>
       </c>
